--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_4_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_4_27.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1533519.308467668</v>
+        <v>1553650.955405031</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713587.768411118</v>
+        <v>713587.7684111178</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6925849.825672159</v>
+        <v>6925849.82567216</v>
       </c>
     </row>
     <row r="11">
@@ -659,16 +659,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>196.9826481283071</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>240.0192609915369</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -738,28 +738,28 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>45.27093583804391</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -786,19 +786,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>73.45315777508635</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -838,10 +838,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,16 +856,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -896,28 +896,28 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G5" t="n">
+        <v>223.3277792152583</v>
+      </c>
+      <c r="H5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G5" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
-        <v>25.17354161800005</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -1032,13 +1032,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>131.0193938670496</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>24.7554325077908</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>190.1066023865956</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1145,16 +1145,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>114.0512913036181</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,28 +1175,28 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1257,22 +1257,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>97.01986919358308</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>190.167558667311</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -1288,73 +1288,73 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>117.3450705775783</v>
       </c>
       <c r="Y11" t="n">
-        <v>117.3450705775783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,25 +1449,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>121.5762763193058</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H12" t="n">
-        <v>7.42522453130207</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1503,19 +1503,19 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1549,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S13" t="n">
-        <v>96.06064116356406</v>
+        <v>21.3881647021493</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>79.82443727670525</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,22 +1652,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>89.98174747814556</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1740,19 +1740,19 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>28.74633083442682</v>
+        <v>48.98427584501901</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>21.38816470214926</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>96.06064116356407</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1841,10 +1841,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,28 +1889,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>42.44128741270552</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>70.6261198365675</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1929,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>7.425224531301852</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1977,7 +1977,7 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U18" t="n">
-        <v>66.81268166933135</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>39.19479062707041</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>39.19479062707041</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2081,22 +2081,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H20" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2126,19 +2126,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>112.8556863456974</v>
+        <v>38.92321710192613</v>
       </c>
       <c r="S20" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>78.16414038592467</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2157,13 +2157,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>81.12752273267782</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>58.79002919115291</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T21" t="n">
         <v>198.8939788055617</v>
@@ -2220,10 +2220,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2290,22 +2290,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>98.68313739545464</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>106.914749732671</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2327,10 +2327,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>394.216634066826</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>128.6368850984962</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2394,10 +2394,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>81.12752273267782</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2409,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>198.8939788055617</v>
@@ -2460,7 +2460,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>76.16996022635789</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>99.78974769572875</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>99.78974769572875</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2567,13 +2567,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,25 +2600,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S26" t="n">
-        <v>99.39179648921089</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>220.5164804230398</v>
+        <v>163.7233641567951</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2634,10 +2634,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -2646,13 +2646,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H27" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>46.94271415388144</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,13 +2682,13 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S27" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>112.3766747359451</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>73.36175976093789</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>73.36175976093791</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2798,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2807,10 +2807,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>104.1189927826352</v>
       </c>
       <c r="I29" t="n">
-        <v>71.42959142778633</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2852,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2868,19 +2868,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.0282495084215</v>
@@ -2916,25 +2916,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>154.9957677807191</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>174.1736765502209</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2953,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>160.0903419479084</v>
+        <v>176.8839300665534</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3041,10 +3041,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>168.0120963982005</v>
+        <v>86.65804289016209</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3120,13 +3120,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.0282495084215</v>
+        <v>18.14375097088705</v>
       </c>
       <c r="H33" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I33" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>48.98427584501901</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3244,16 +3244,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>73.3617597609376</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>99.78974769572875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3281,10 +3281,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>38.81987006827074</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0.9005944815177395</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3345,25 +3345,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,25 +3393,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>87.30283807112627</v>
       </c>
       <c r="T36" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>192.8012423251832</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3433,19 +3433,19 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H37" t="n">
-        <v>159.8772180037952</v>
+        <v>12.35168551462418</v>
       </c>
       <c r="I37" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>18.12022702288992</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3506,13 +3506,13 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>173.1945231188783</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3548,16 +3548,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>117.3450705775779</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3579,10 +3579,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -3627,16 +3627,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S39" t="n">
-        <v>165.8272126914158</v>
+        <v>25.80737165807912</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U39" t="n">
-        <v>26.13668042021398</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3703,19 +3703,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>96.06064116356407</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>39.19479062707041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3749,16 +3749,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G41" t="n">
-        <v>273.1385125388354</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H41" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,28 +3785,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>27.63984123830711</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3816,28 +3816,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,13 +3864,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>165.8272126914158</v>
+        <v>120.3673242862879</v>
       </c>
       <c r="T42" t="n">
-        <v>94.54961433697066</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U42" t="n">
         <v>225.9206407878966</v>
@@ -3879,13 +3879,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3961,10 +3961,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>99.78974769572875</v>
+        <v>39.19479062707041</v>
       </c>
     </row>
     <row r="44">
@@ -3974,22 +3974,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>165.40149328076</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.6920118803606</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4022,10 +4022,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4037,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4053,7 +4053,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>66.10337650124416</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>198.8939788055617</v>
@@ -4122,7 +4122,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>25.37527508885681</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>99.78974769572852</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>98.68313739545464</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41.68395448076474</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C2" t="n">
-        <v>41.68395448076474</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D2" t="n">
-        <v>41.68395448076474</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E2" t="n">
-        <v>41.68395448076474</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F2" t="n">
         <v>34.73845373156126</v>
@@ -4355,25 +4355,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>285.1327311248648</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
-        <v>285.1327311248648</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y2" t="n">
-        <v>41.68395448076474</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>156.0631229240681</v>
+        <v>615.2751726504672</v>
       </c>
       <c r="C3" t="n">
-        <v>156.0631229240681</v>
+        <v>440.8221433693402</v>
       </c>
       <c r="D3" t="n">
-        <v>156.0631229240681</v>
+        <v>291.8877337080889</v>
       </c>
       <c r="E3" t="n">
-        <v>156.0631229240681</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F3" t="n">
-        <v>156.0631229240681</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G3" t="n">
-        <v>110.334904905842</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4413,19 +4413,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4434,25 +4434,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>862.8876260635219</v>
+        <v>615.2751726504672</v>
       </c>
       <c r="U3" t="n">
-        <v>634.6640077999109</v>
+        <v>615.2751726504672</v>
       </c>
       <c r="V3" t="n">
-        <v>399.5118995681682</v>
+        <v>615.2751726504672</v>
       </c>
       <c r="W3" t="n">
-        <v>156.0631229240681</v>
+        <v>615.2751726504672</v>
       </c>
       <c r="X3" t="n">
-        <v>156.0631229240681</v>
+        <v>615.2751726504672</v>
       </c>
       <c r="Y3" t="n">
-        <v>156.0631229240681</v>
+        <v>615.2751726504672</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4504,34 +4504,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>533.7059962668447</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C5" t="n">
-        <v>290.2572196227447</v>
+        <v>495.259035872464</v>
       </c>
       <c r="D5" t="n">
-        <v>290.2572196227447</v>
+        <v>495.259035872464</v>
       </c>
       <c r="E5" t="n">
-        <v>290.2572196227447</v>
+        <v>495.259035872464</v>
       </c>
       <c r="F5" t="n">
-        <v>46.80844297864461</v>
+        <v>488.3135351232606</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U5" t="n">
-        <v>559.1338160830064</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V5" t="n">
-        <v>533.7059962668447</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W5" t="n">
-        <v>533.7059962668447</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X5" t="n">
-        <v>533.7059962668447</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y5" t="n">
-        <v>533.7059962668447</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4650,46 +4650,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>304.2053859195205</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
-        <v>304.2053859195205</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>588.4532163200711</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>360.2295980564601</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V6" t="n">
-        <v>227.8867759685313</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W6" t="n">
-        <v>227.8867759685313</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4744,31 +4744,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>41.68395448076474</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C8" t="n">
-        <v>41.68395448076474</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D8" t="n">
-        <v>41.68395448076474</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E8" t="n">
-        <v>41.68395448076474</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="F8" t="n">
-        <v>34.73845373156126</v>
+        <v>359.156365563381</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V8" t="n">
-        <v>720.6083788665362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W8" t="n">
-        <v>477.1596022224361</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X8" t="n">
-        <v>233.7108255783361</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y8" t="n">
-        <v>233.7108255783361</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="9">
@@ -4890,34 +4890,34 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>866.0572876383301</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>866.0572876383301</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>663.8706929970961</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>435.6470747334852</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V9" t="n">
-        <v>435.6470747334852</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W9" t="n">
         <v>435.6470747334852</v>
@@ -5002,10 +5002,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5081,7 +5081,7 @@
         <v>150.9897000805384</v>
       </c>
       <c r="X11" t="n">
-        <v>150.9897000805384</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y11" t="n">
         <v>32.45932575975219</v>
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>39.95955255904721</v>
+        <v>938.0113757202575</v>
       </c>
       <c r="C12" t="n">
-        <v>39.95955255904721</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D12" t="n">
-        <v>39.95955255904721</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E12" t="n">
-        <v>39.95955255904721</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F12" t="n">
-        <v>39.95955255904721</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G12" t="n">
-        <v>39.95955255904721</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H12" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I12" t="n">
         <v>32.45932575975219</v>
@@ -5121,16 +5121,16 @@
         <v>61.20822116384403</v>
       </c>
       <c r="K12" t="n">
-        <v>236.9655055809357</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="L12" t="n">
-        <v>534.6972605625989</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M12" t="n">
-        <v>934.1153971668618</v>
+        <v>758.3581127497702</v>
       </c>
       <c r="N12" t="n">
-        <v>1335.799553443795</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O12" t="n">
         <v>1380.722538783602</v>
@@ -5151,19 +5151,19 @@
         <v>1173.163483952</v>
       </c>
       <c r="U12" t="n">
-        <v>944.9608164894784</v>
+        <v>1173.163483952</v>
       </c>
       <c r="V12" t="n">
-        <v>709.8087082577356</v>
+        <v>938.0113757202575</v>
       </c>
       <c r="W12" t="n">
-        <v>455.571351529534</v>
+        <v>938.0113757202575</v>
       </c>
       <c r="X12" t="n">
-        <v>247.7198513240011</v>
+        <v>938.0113757202575</v>
       </c>
       <c r="Y12" t="n">
-        <v>39.95955255904721</v>
+        <v>938.0113757202575</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32.45932575975219</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="C13" t="n">
-        <v>32.45932575975219</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="D13" t="n">
-        <v>32.45932575975219</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="E13" t="n">
-        <v>32.45932575975219</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="F13" t="n">
-        <v>32.45932575975219</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="G13" t="n">
-        <v>32.45932575975219</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="H13" t="n">
-        <v>32.45932575975219</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="I13" t="n">
-        <v>32.45932575975219</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="J13" t="n">
         <v>32.45932575975219</v>
@@ -5224,25 +5224,25 @@
         <v>129.4902764300189</v>
       </c>
       <c r="S13" t="n">
-        <v>32.45932575975219</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="T13" t="n">
-        <v>32.45932575975219</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="U13" t="n">
-        <v>32.45932575975219</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="V13" t="n">
-        <v>32.45932575975219</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="W13" t="n">
-        <v>32.45932575975219</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="X13" t="n">
-        <v>32.45932575975219</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="Y13" t="n">
-        <v>32.45932575975219</v>
+        <v>107.8860696601711</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>482.0525874241086</v>
+        <v>1145.475793905159</v>
       </c>
       <c r="C14" t="n">
-        <v>113.0900704836969</v>
+        <v>776.5132769647469</v>
       </c>
       <c r="D14" t="n">
-        <v>113.0900704836969</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="E14" t="n">
-        <v>113.0900704836969</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F14" t="n">
-        <v>113.0900704836969</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G14" t="n">
-        <v>113.0900704836969</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H14" t="n">
-        <v>113.0900704836969</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I14" t="n">
         <v>32.45932575975218</v>
@@ -5300,28 +5300,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R14" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S14" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T14" t="n">
-        <v>1088.658125761969</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U14" t="n">
-        <v>834.8212426942227</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V14" t="n">
-        <v>834.8212426942227</v>
+        <v>1532.07563396928</v>
       </c>
       <c r="W14" t="n">
-        <v>482.0525874241086</v>
+        <v>1532.07563396928</v>
       </c>
       <c r="X14" t="n">
-        <v>482.0525874241086</v>
+        <v>1532.07563396928</v>
       </c>
       <c r="Y14" t="n">
-        <v>482.0525874241086</v>
+        <v>1532.07563396928</v>
       </c>
     </row>
     <row r="15">
@@ -5355,16 +5355,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J15" t="n">
-        <v>61.20822116384402</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K15" t="n">
-        <v>61.20822116384402</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L15" t="n">
-        <v>358.9399761455072</v>
+        <v>147.3709770270845</v>
       </c>
       <c r="M15" t="n">
-        <v>758.3581127497702</v>
+        <v>546.7891136313474</v>
       </c>
       <c r="N15" t="n">
         <v>948.4732699082806</v>
@@ -5388,16 +5388,16 @@
         <v>1622.966287987609</v>
       </c>
       <c r="U15" t="n">
-        <v>1394.763620525087</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V15" t="n">
-        <v>1394.763620525087</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W15" t="n">
-        <v>1365.726922712535</v>
+        <v>1573.487221477489</v>
       </c>
       <c r="X15" t="n">
-        <v>1157.875422507002</v>
+        <v>1365.635721271956</v>
       </c>
       <c r="Y15" t="n">
         <v>1157.875422507002</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>129.4902764300189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C16" t="n">
-        <v>129.4902764300189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D16" t="n">
-        <v>129.4902764300189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E16" t="n">
-        <v>129.4902764300189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F16" t="n">
-        <v>129.4902764300189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G16" t="n">
-        <v>129.4902764300189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H16" t="n">
-        <v>129.4902764300189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I16" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J16" t="n">
         <v>32.45932575975218</v>
@@ -5443,43 +5443,43 @@
         <v>107.0302722280248</v>
       </c>
       <c r="M16" t="n">
-        <v>187.2357570984439</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N16" t="n">
         <v>270.9687512285709</v>
       </c>
       <c r="O16" t="n">
-        <v>332.2934283710736</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P16" t="n">
-        <v>361.24660160295</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q16" t="n">
-        <v>296.5701361642184</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="R16" t="n">
         <v>129.4902764300189</v>
       </c>
       <c r="S16" t="n">
-        <v>129.4902764300189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="T16" t="n">
-        <v>129.4902764300189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="U16" t="n">
-        <v>129.4902764300189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V16" t="n">
-        <v>129.4902764300189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W16" t="n">
-        <v>129.4902764300189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X16" t="n">
-        <v>129.4902764300189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y16" t="n">
-        <v>129.4902764300189</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>401.4218427001639</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="C17" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="D17" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="E17" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="F17" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="G17" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="H17" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I17" t="n">
         <v>32.45932575975218</v>
@@ -5537,28 +5537,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R17" t="n">
-        <v>1622.966287987609</v>
+        <v>1580.096300702048</v>
       </c>
       <c r="S17" t="n">
-        <v>1622.966287987609</v>
+        <v>1382.527700869072</v>
       </c>
       <c r="T17" t="n">
-        <v>1622.966287987609</v>
+        <v>1159.783781249839</v>
       </c>
       <c r="U17" t="n">
-        <v>1622.966287987609</v>
+        <v>905.9468981820935</v>
       </c>
       <c r="V17" t="n">
-        <v>1622.966287987609</v>
+        <v>574.8840108385228</v>
       </c>
       <c r="W17" t="n">
-        <v>1551.626773001177</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="X17" t="n">
-        <v>1178.161014740097</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="Y17" t="n">
-        <v>788.0216827642857</v>
+        <v>222.1153555684087</v>
       </c>
     </row>
     <row r="18">
@@ -5568,13 +5568,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>32.45932575975218</v>
+        <v>39.95955255904698</v>
       </c>
       <c r="C18" t="n">
-        <v>32.45932575975218</v>
+        <v>39.95955255904698</v>
       </c>
       <c r="D18" t="n">
-        <v>32.45932575975218</v>
+        <v>39.95955255904698</v>
       </c>
       <c r="E18" t="n">
         <v>32.45932575975218</v>
@@ -5604,10 +5604,10 @@
         <v>905.36650176277</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.050658039703</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="O18" t="n">
-        <v>1513.730526286846</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P18" t="n">
         <v>1513.730526286846</v>
@@ -5625,19 +5625,19 @@
         <v>1173.163483952</v>
       </c>
       <c r="U18" t="n">
-        <v>1105.675926710251</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="V18" t="n">
-        <v>870.5238184785085</v>
+        <v>709.8087082577354</v>
       </c>
       <c r="W18" t="n">
-        <v>616.2864617503069</v>
+        <v>455.5713515295337</v>
       </c>
       <c r="X18" t="n">
-        <v>408.4349615447741</v>
+        <v>247.7198513240009</v>
       </c>
       <c r="Y18" t="n">
-        <v>200.6746627798202</v>
+        <v>39.95955255904698</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>72.05002336285361</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C19" t="n">
-        <v>72.05002336285361</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D19" t="n">
-        <v>72.05002336285361</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E19" t="n">
-        <v>72.05002336285361</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F19" t="n">
-        <v>72.05002336285361</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G19" t="n">
-        <v>72.05002336285361</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H19" t="n">
-        <v>72.05002336285361</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I19" t="n">
         <v>32.45932575975218</v>
@@ -5713,10 +5713,10 @@
         <v>72.05002336285361</v>
       </c>
       <c r="X19" t="n">
-        <v>72.05002336285361</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y19" t="n">
-        <v>72.05002336285361</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>369.2677254726013</v>
+        <v>1197.050067012451</v>
       </c>
       <c r="C20" t="n">
-        <v>369.2677254726013</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="D20" t="n">
-        <v>369.2677254726013</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="E20" t="n">
-        <v>369.2677254726013</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="F20" t="n">
-        <v>369.2677254726013</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G20" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H20" t="n">
         <v>32.45932575975218</v>
@@ -5774,28 +5774,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R20" t="n">
-        <v>1508.970645214177</v>
+        <v>1583.649907076573</v>
       </c>
       <c r="S20" t="n">
-        <v>1311.402045381201</v>
+        <v>1583.649907076573</v>
       </c>
       <c r="T20" t="n">
-        <v>1088.658125761969</v>
+        <v>1583.649907076573</v>
       </c>
       <c r="U20" t="n">
-        <v>834.8212426942227</v>
+        <v>1583.649907076573</v>
       </c>
       <c r="V20" t="n">
-        <v>755.8675655367231</v>
+        <v>1583.649907076573</v>
       </c>
       <c r="W20" t="n">
-        <v>755.8675655367231</v>
+        <v>1583.649907076573</v>
       </c>
       <c r="X20" t="n">
-        <v>755.8675655367231</v>
+        <v>1583.649907076573</v>
       </c>
       <c r="Y20" t="n">
-        <v>755.8675655367231</v>
+        <v>1583.649907076573</v>
       </c>
     </row>
     <row r="21">
@@ -5805,10 +5805,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>206.9123550408792</v>
+        <v>355.8467647021305</v>
       </c>
       <c r="C21" t="n">
-        <v>32.45932575975218</v>
+        <v>181.3937354210034</v>
       </c>
       <c r="D21" t="n">
         <v>32.45932575975218</v>
@@ -5832,13 +5832,13 @@
         <v>32.45932575975218</v>
       </c>
       <c r="K21" t="n">
-        <v>32.45932575975218</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L21" t="n">
-        <v>330.1910807414154</v>
+        <v>505.948365158507</v>
       </c>
       <c r="M21" t="n">
-        <v>656.0248753321102</v>
+        <v>905.36650176277</v>
       </c>
       <c r="N21" t="n">
         <v>1057.709031609043</v>
@@ -5853,28 +5853,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R21" t="n">
-        <v>1622.966287987609</v>
+        <v>1563.582420117758</v>
       </c>
       <c r="S21" t="n">
-        <v>1622.966287987609</v>
+        <v>1396.080185075924</v>
       </c>
       <c r="T21" t="n">
-        <v>1422.063279093102</v>
+        <v>1195.177176181417</v>
       </c>
       <c r="U21" t="n">
-        <v>1193.860611630581</v>
+        <v>966.9745087188951</v>
       </c>
       <c r="V21" t="n">
-        <v>958.708503398838</v>
+        <v>731.8224004871524</v>
       </c>
       <c r="W21" t="n">
-        <v>704.4711466706365</v>
+        <v>731.8224004871524</v>
       </c>
       <c r="X21" t="n">
-        <v>496.6196464651036</v>
+        <v>731.8224004871524</v>
       </c>
       <c r="Y21" t="n">
-        <v>288.8593477001497</v>
+        <v>524.0621017221986</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C22" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D22" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E22" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F22" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G22" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H22" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I22" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J22" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K22" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L22" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M22" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N22" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O22" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P22" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q22" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R22" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S22" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T22" t="n">
-        <v>1622.966287987609</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="U22" t="n">
-        <v>1622.966287987609</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="V22" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W22" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X22" t="n">
-        <v>1514.971591287941</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y22" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>840.4979177433162</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C23" t="n">
-        <v>840.4979177433162</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D23" t="n">
-        <v>840.4979177433162</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E23" t="n">
-        <v>840.4979177433162</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F23" t="n">
-        <v>442.2992974737949</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G23" t="n">
         <v>32.45932575975218</v>
@@ -5987,7 +5987,7 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J23" t="n">
-        <v>70.13987180521497</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K23" t="n">
         <v>247.3580469011318</v>
@@ -5996,7 +5996,7 @@
         <v>519.4894913528325</v>
       </c>
       <c r="M23" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N23" t="n">
         <v>1148.836227140252</v>
@@ -6014,25 +6014,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S23" t="n">
-        <v>1425.397688154633</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T23" t="n">
-        <v>1425.397688154633</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U23" t="n">
-        <v>1171.560805086887</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V23" t="n">
-        <v>840.4979177433162</v>
+        <v>1291.903400644038</v>
       </c>
       <c r="W23" t="n">
-        <v>840.4979177433162</v>
+        <v>939.1347453739243</v>
       </c>
       <c r="X23" t="n">
-        <v>840.4979177433162</v>
+        <v>809.1984977996857</v>
       </c>
       <c r="Y23" t="n">
-        <v>840.4979177433162</v>
+        <v>419.059165823874</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>170.8716990005819</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C24" t="n">
-        <v>170.8716990005819</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D24" t="n">
-        <v>170.8716990005819</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E24" t="n">
-        <v>170.8716990005819</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F24" t="n">
-        <v>170.8716990005819</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G24" t="n">
         <v>32.45932575975218</v>
@@ -6075,7 +6075,7 @@
         <v>358.9399761455072</v>
       </c>
       <c r="M24" t="n">
-        <v>656.0248753321102</v>
+        <v>758.3581127497702</v>
       </c>
       <c r="N24" t="n">
         <v>1057.709031609043</v>
@@ -6090,28 +6090,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R24" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S24" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T24" t="n">
-        <v>1173.163483952</v>
+        <v>1422.063279093102</v>
       </c>
       <c r="U24" t="n">
-        <v>944.9608164894781</v>
+        <v>1193.860611630581</v>
       </c>
       <c r="V24" t="n">
-        <v>709.8087082577354</v>
+        <v>958.708503398838</v>
       </c>
       <c r="W24" t="n">
-        <v>455.5713515295337</v>
+        <v>704.4711466706365</v>
       </c>
       <c r="X24" t="n">
-        <v>378.6319977655359</v>
+        <v>496.6196464651036</v>
       </c>
       <c r="Y24" t="n">
-        <v>170.8716990005819</v>
+        <v>288.8593477001497</v>
       </c>
     </row>
     <row r="25">
@@ -6121,10 +6121,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>32.45932575975218</v>
+        <v>133.2570507049327</v>
       </c>
       <c r="C25" t="n">
-        <v>32.45932575975218</v>
+        <v>133.2570507049327</v>
       </c>
       <c r="D25" t="n">
         <v>32.45932575975218</v>
@@ -6184,13 +6184,13 @@
         <v>361.2466016029501</v>
       </c>
       <c r="W25" t="n">
-        <v>260.4488766577695</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X25" t="n">
-        <v>32.45932575975218</v>
+        <v>133.2570507049327</v>
       </c>
       <c r="Y25" t="n">
-        <v>32.45932575975218</v>
+        <v>133.2570507049327</v>
       </c>
     </row>
     <row r="26">
@@ -6200,40 +6200,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>968.7637269953004</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C26" t="n">
-        <v>968.7637269953004</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D26" t="n">
-        <v>968.7637269953004</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E26" t="n">
-        <v>968.7637269953004</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F26" t="n">
-        <v>968.7637269953004</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G26" t="n">
-        <v>558.9237552812577</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H26" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I26" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J26" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521497</v>
       </c>
       <c r="K26" t="n">
         <v>247.3580469011318</v>
       </c>
       <c r="L26" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M26" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N26" t="n">
         <v>1148.836227140252</v>
@@ -6248,28 +6248,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R26" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S26" t="n">
-        <v>1522.570533958103</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="T26" t="n">
-        <v>1299.826614338871</v>
+        <v>1343.593509702263</v>
       </c>
       <c r="U26" t="n">
-        <v>1299.826614338871</v>
+        <v>1089.756626634517</v>
       </c>
       <c r="V26" t="n">
-        <v>968.7637269953004</v>
+        <v>758.6937392909463</v>
       </c>
       <c r="W26" t="n">
-        <v>968.7637269953004</v>
+        <v>405.9250840208321</v>
       </c>
       <c r="X26" t="n">
-        <v>968.7637269953004</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y26" t="n">
-        <v>968.7637269953004</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>448.5248967308594</v>
+        <v>957.7415918977861</v>
       </c>
       <c r="C27" t="n">
-        <v>448.5248967308594</v>
+        <v>783.2885626166591</v>
       </c>
       <c r="D27" t="n">
-        <v>448.5248967308594</v>
+        <v>634.3541529554078</v>
       </c>
       <c r="E27" t="n">
-        <v>289.2874417254039</v>
+        <v>475.1166979499523</v>
       </c>
       <c r="F27" t="n">
-        <v>142.7528837522889</v>
+        <v>328.5821399768373</v>
       </c>
       <c r="G27" t="n">
-        <v>142.7528837522889</v>
+        <v>190.1697667360075</v>
       </c>
       <c r="H27" t="n">
-        <v>32.45932575975218</v>
+        <v>79.87620874347081</v>
       </c>
       <c r="I27" t="n">
         <v>32.45932575975218</v>
@@ -6315,10 +6315,10 @@
         <v>934.1153971668618</v>
       </c>
       <c r="N27" t="n">
-        <v>1190.717019112288</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="O27" t="n">
-        <v>1513.730526286846</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P27" t="n">
         <v>1513.730526286846</v>
@@ -6330,25 +6330,25 @@
         <v>1541.568727888341</v>
       </c>
       <c r="S27" t="n">
-        <v>1374.066492846507</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T27" t="n">
-        <v>1260.554700183936</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="U27" t="n">
-        <v>1032.352032721414</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="V27" t="n">
-        <v>1032.352032721414</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="W27" t="n">
-        <v>1032.352032721414</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="X27" t="n">
-        <v>824.5005325158813</v>
+        <v>1333.717227682808</v>
       </c>
       <c r="Y27" t="n">
-        <v>616.7402337509275</v>
+        <v>1125.956928917854</v>
       </c>
     </row>
     <row r="28">
@@ -6412,13 +6412,13 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T28" t="n">
-        <v>361.2466016029501</v>
+        <v>287.1438139656391</v>
       </c>
       <c r="U28" t="n">
-        <v>361.2466016029501</v>
+        <v>287.1438139656391</v>
       </c>
       <c r="V28" t="n">
-        <v>106.5621133970632</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W28" t="n">
         <v>32.45932575975218</v>
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>859.3611977507176</v>
+        <v>506.5925424806035</v>
       </c>
       <c r="C29" t="n">
-        <v>490.3986808103058</v>
+        <v>137.6300255401918</v>
       </c>
       <c r="D29" t="n">
-        <v>490.3986808103058</v>
+        <v>137.6300255401918</v>
       </c>
       <c r="E29" t="n">
-        <v>104.6104282120616</v>
+        <v>137.6300255401918</v>
       </c>
       <c r="F29" t="n">
-        <v>104.6104282120616</v>
+        <v>137.6300255401918</v>
       </c>
       <c r="G29" t="n">
-        <v>104.6104282120616</v>
+        <v>137.6300255401918</v>
       </c>
       <c r="H29" t="n">
-        <v>104.6104282120616</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I29" t="n">
         <v>32.45932575975218</v>
@@ -6467,7 +6467,7 @@
         <v>247.3580469011318</v>
       </c>
       <c r="L29" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M29" t="n">
         <v>838.8947028941454</v>
@@ -6500,13 +6500,13 @@
         <v>1622.966287987609</v>
       </c>
       <c r="W29" t="n">
-        <v>1622.966287987609</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="X29" t="n">
-        <v>1249.500529726529</v>
+        <v>896.7318744564152</v>
       </c>
       <c r="Y29" t="n">
-        <v>859.3611977507176</v>
+        <v>506.5925424806035</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>360.5006335659854</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="C30" t="n">
-        <v>360.5006335659854</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D30" t="n">
-        <v>360.5006335659854</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E30" t="n">
-        <v>360.5006335659854</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F30" t="n">
         <v>360.5006335659854</v>
@@ -6543,10 +6543,10 @@
         <v>61.20822116384403</v>
       </c>
       <c r="K30" t="n">
-        <v>236.9655055809357</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="L30" t="n">
-        <v>534.6972605625989</v>
+        <v>147.3709770270845</v>
       </c>
       <c r="M30" t="n">
         <v>546.7891136313474</v>
@@ -6564,28 +6564,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R30" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S30" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T30" t="n">
-        <v>1422.063279093102</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="U30" t="n">
-        <v>1265.501897496416</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="V30" t="n">
-        <v>1030.349789264674</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="W30" t="n">
-        <v>776.1124325364722</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="X30" t="n">
-        <v>568.2609323309393</v>
+        <v>1365.635721271956</v>
       </c>
       <c r="Y30" t="n">
-        <v>360.5006335659854</v>
+        <v>1157.875422507002</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>32.45932575975218</v>
+        <v>1444.295651556747</v>
       </c>
       <c r="C31" t="n">
-        <v>32.45932575975218</v>
+        <v>1444.295651556747</v>
       </c>
       <c r="D31" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="E31" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="F31" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="G31" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="H31" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="I31" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="J31" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="K31" t="n">
-        <v>40.81344334191284</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L31" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M31" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N31" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O31" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P31" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q31" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R31" t="n">
-        <v>194.1667418687505</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S31" t="n">
-        <v>32.45932575975218</v>
+        <v>1444.295651556747</v>
       </c>
       <c r="T31" t="n">
-        <v>32.45932575975218</v>
+        <v>1444.295651556747</v>
       </c>
       <c r="U31" t="n">
-        <v>32.45932575975218</v>
+        <v>1444.295651556747</v>
       </c>
       <c r="V31" t="n">
-        <v>32.45932575975218</v>
+        <v>1444.295651556747</v>
       </c>
       <c r="W31" t="n">
-        <v>32.45932575975218</v>
+        <v>1444.295651556747</v>
       </c>
       <c r="X31" t="n">
-        <v>32.45932575975218</v>
+        <v>1444.295651556747</v>
       </c>
       <c r="Y31" t="n">
-        <v>32.45932575975218</v>
+        <v>1444.295651556747</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>779.107697186644</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C32" t="n">
-        <v>779.107697186644</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D32" t="n">
-        <v>779.107697186644</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E32" t="n">
-        <v>779.107697186644</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F32" t="n">
-        <v>779.107697186644</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G32" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H32" t="n">
         <v>32.45932575975218</v>
@@ -6725,25 +6725,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S32" t="n">
-        <v>1425.397688154633</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T32" t="n">
-        <v>1202.653768535401</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U32" t="n">
-        <v>948.8168854676546</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V32" t="n">
-        <v>779.107697186644</v>
+        <v>1535.43291133088</v>
       </c>
       <c r="W32" t="n">
-        <v>779.107697186644</v>
+        <v>1182.664256060766</v>
       </c>
       <c r="X32" t="n">
-        <v>779.107697186644</v>
+        <v>809.1984977996857</v>
       </c>
       <c r="Y32" t="n">
-        <v>779.107697186644</v>
+        <v>419.059165823874</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>989.6600854869342</v>
+        <v>790.2393568559519</v>
       </c>
       <c r="C33" t="n">
-        <v>815.2070562058072</v>
+        <v>615.7863275748249</v>
       </c>
       <c r="D33" t="n">
-        <v>666.272646544556</v>
+        <v>466.8519179135736</v>
       </c>
       <c r="E33" t="n">
-        <v>507.0351915391004</v>
+        <v>307.6144629081181</v>
       </c>
       <c r="F33" t="n">
-        <v>360.5006335659854</v>
+        <v>161.0799049350031</v>
       </c>
       <c r="G33" t="n">
-        <v>222.0882603251556</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H33" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I33" t="n">
         <v>32.45932575975218</v>
@@ -6783,16 +6783,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="L33" t="n">
-        <v>330.1910807414154</v>
+        <v>147.3709770270845</v>
       </c>
       <c r="M33" t="n">
-        <v>729.6092173456783</v>
+        <v>546.7891136313474</v>
       </c>
       <c r="N33" t="n">
-        <v>1131.293373622612</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O33" t="n">
-        <v>1454.30688079717</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P33" t="n">
         <v>1513.730526286846</v>
@@ -6801,28 +6801,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R33" t="n">
-        <v>1573.487221477489</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S33" t="n">
-        <v>1573.487221477489</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T33" t="n">
-        <v>1573.487221477489</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="U33" t="n">
-        <v>1573.487221477489</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="V33" t="n">
-        <v>1573.487221477489</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="W33" t="n">
-        <v>1573.487221477489</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="X33" t="n">
-        <v>1365.635721271956</v>
+        <v>1166.214992640974</v>
       </c>
       <c r="Y33" t="n">
-        <v>1157.875422507002</v>
+        <v>958.45469387602</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="C34" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="D34" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="E34" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="F34" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="G34" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="H34" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="I34" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="J34" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="K34" t="n">
-        <v>40.81344334191284</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L34" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M34" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N34" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O34" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P34" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q34" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R34" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S34" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T34" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U34" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V34" t="n">
-        <v>361.2466016029501</v>
+        <v>1368.281799781722</v>
       </c>
       <c r="W34" t="n">
-        <v>361.2466016029501</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="X34" t="n">
-        <v>133.2570507049327</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="Y34" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1145.475793905159</v>
+        <v>261.3273455363589</v>
       </c>
       <c r="C35" t="n">
-        <v>776.5132769647469</v>
+        <v>261.3273455363589</v>
       </c>
       <c r="D35" t="n">
-        <v>418.2475783579964</v>
+        <v>261.3273455363589</v>
       </c>
       <c r="E35" t="n">
-        <v>32.45932575975218</v>
+        <v>261.3273455363589</v>
       </c>
       <c r="F35" t="n">
-        <v>32.45932575975218</v>
+        <v>261.3273455363589</v>
       </c>
       <c r="G35" t="n">
-        <v>32.45932575975218</v>
+        <v>261.3273455363589</v>
       </c>
       <c r="H35" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I35" t="n">
         <v>32.45932575975218</v>
@@ -6962,25 +6962,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S35" t="n">
-        <v>1622.056596592137</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T35" t="n">
-        <v>1399.312676972904</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U35" t="n">
-        <v>1145.475793905159</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="V35" t="n">
-        <v>1145.475793905159</v>
+        <v>1038.066517576292</v>
       </c>
       <c r="W35" t="n">
-        <v>1145.475793905159</v>
+        <v>1038.066517576292</v>
       </c>
       <c r="X35" t="n">
-        <v>1145.475793905159</v>
+        <v>1038.066517576292</v>
       </c>
       <c r="Y35" t="n">
-        <v>1145.475793905159</v>
+        <v>647.9271856004807</v>
       </c>
     </row>
     <row r="36">
@@ -6990,46 +6990,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>851.2477122461045</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C36" t="n">
-        <v>676.7946829649775</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D36" t="n">
-        <v>527.8602733037262</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E36" t="n">
-        <v>368.6228182982707</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F36" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G36" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H36" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I36" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J36" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K36" t="n">
-        <v>236.9655055809357</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L36" t="n">
-        <v>534.6972605625989</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M36" t="n">
-        <v>656.0248753321102</v>
+        <v>729.6092173456783</v>
       </c>
       <c r="N36" t="n">
-        <v>1057.709031609043</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O36" t="n">
-        <v>1380.722538783602</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P36" t="n">
         <v>1622.966287987609</v>
@@ -7041,25 +7041,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S36" t="n">
-        <v>1622.966287987609</v>
+        <v>1534.78160306728</v>
       </c>
       <c r="T36" t="n">
-        <v>1422.063279093102</v>
+        <v>1333.878594172773</v>
       </c>
       <c r="U36" t="n">
-        <v>1422.063279093102</v>
+        <v>1105.675926710251</v>
       </c>
       <c r="V36" t="n">
-        <v>1422.063279093102</v>
+        <v>870.5238184785085</v>
       </c>
       <c r="W36" t="n">
-        <v>1422.063279093102</v>
+        <v>616.2864617503069</v>
       </c>
       <c r="X36" t="n">
-        <v>1214.21177888757</v>
+        <v>408.4349615447741</v>
       </c>
       <c r="Y36" t="n">
-        <v>1019.463049266172</v>
+        <v>200.6746627798202</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="C37" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="D37" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="E37" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="F37" t="n">
-        <v>361.2466016029501</v>
+        <v>1476.076340489699</v>
       </c>
       <c r="G37" t="n">
-        <v>361.2466016029501</v>
+        <v>1306.655462159183</v>
       </c>
       <c r="H37" t="n">
-        <v>199.7544622051771</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="I37" t="n">
-        <v>50.76258537883291</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="J37" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="K37" t="n">
-        <v>40.81344334191284</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L37" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M37" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N37" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O37" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P37" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q37" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R37" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S37" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T37" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U37" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V37" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W37" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X37" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y37" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
     </row>
     <row r="38">
@@ -7148,16 +7148,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>32.45932575975218</v>
+        <v>565.6689871128444</v>
       </c>
       <c r="C38" t="n">
-        <v>32.45932575975218</v>
+        <v>565.6689871128444</v>
       </c>
       <c r="D38" t="n">
-        <v>32.45932575975218</v>
+        <v>207.4032885060939</v>
       </c>
       <c r="E38" t="n">
-        <v>32.45932575975218</v>
+        <v>207.4032885060939</v>
       </c>
       <c r="F38" t="n">
         <v>32.45932575975218</v>
@@ -7172,16 +7172,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J38" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K38" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L38" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M38" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N38" t="n">
         <v>1148.836227140252</v>
@@ -7196,28 +7196,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R38" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S38" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T38" t="n">
-        <v>1088.658125761969</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U38" t="n">
-        <v>834.8212426942227</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V38" t="n">
-        <v>503.7583553506521</v>
+        <v>1291.903400644038</v>
       </c>
       <c r="W38" t="n">
-        <v>150.9897000805379</v>
+        <v>939.1347453739243</v>
       </c>
       <c r="X38" t="n">
-        <v>32.45932575975218</v>
+        <v>565.6689871128444</v>
       </c>
       <c r="Y38" t="n">
-        <v>32.45932575975218</v>
+        <v>565.6689871128444</v>
       </c>
     </row>
     <row r="39">
@@ -7227,7 +7227,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>355.8467647021305</v>
+        <v>181.3937354210034</v>
       </c>
       <c r="C39" t="n">
         <v>181.3937354210034</v>
@@ -7257,46 +7257,46 @@
         <v>61.20822116384403</v>
       </c>
       <c r="L39" t="n">
-        <v>256.6067387278473</v>
+        <v>147.3709770270845</v>
       </c>
       <c r="M39" t="n">
-        <v>656.0248753321102</v>
+        <v>546.7891136313474</v>
       </c>
       <c r="N39" t="n">
-        <v>1057.709031609043</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O39" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P39" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q39" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R39" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S39" t="n">
-        <v>1455.464052945775</v>
+        <v>1515.500675708463</v>
       </c>
       <c r="T39" t="n">
-        <v>1455.464052945775</v>
+        <v>1314.597666813956</v>
       </c>
       <c r="U39" t="n">
-        <v>1429.063365652629</v>
+        <v>1086.394999351435</v>
       </c>
       <c r="V39" t="n">
-        <v>1193.911257420887</v>
+        <v>851.2428911196919</v>
       </c>
       <c r="W39" t="n">
-        <v>939.6739006926853</v>
+        <v>597.0055343914902</v>
       </c>
       <c r="X39" t="n">
-        <v>731.8224004871524</v>
+        <v>389.1540341859574</v>
       </c>
       <c r="Y39" t="n">
-        <v>524.0621017221986</v>
+        <v>181.3937354210034</v>
       </c>
     </row>
     <row r="40">
@@ -7351,28 +7351,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q40" t="n">
-        <v>361.2466016029501</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="R40" t="n">
-        <v>361.2466016029501</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="S40" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="T40" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="U40" t="n">
-        <v>72.05002336285361</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V40" t="n">
-        <v>72.05002336285361</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W40" t="n">
-        <v>72.05002336285361</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X40" t="n">
-        <v>72.05002336285361</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y40" t="n">
         <v>32.45932575975218</v>
@@ -7385,40 +7385,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>834.8212426942227</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="C41" t="n">
-        <v>834.8212426942227</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="D41" t="n">
-        <v>834.8212426942227</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="E41" t="n">
-        <v>834.8212426942227</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="F41" t="n">
-        <v>834.8212426942227</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G41" t="n">
-        <v>558.9237552812577</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H41" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I41" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J41" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521491</v>
       </c>
       <c r="K41" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011317</v>
       </c>
       <c r="L41" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M41" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941453</v>
       </c>
       <c r="N41" t="n">
         <v>1148.836227140252</v>
@@ -7433,28 +7433,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R41" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S41" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T41" t="n">
-        <v>1088.658125761969</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U41" t="n">
-        <v>834.8212426942227</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V41" t="n">
-        <v>834.8212426942227</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W41" t="n">
-        <v>834.8212426942227</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="X41" t="n">
-        <v>834.8212426942227</v>
+        <v>1242.278601163649</v>
       </c>
       <c r="Y41" t="n">
-        <v>834.8212426942227</v>
+        <v>852.1392691878377</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>815.2070562058072</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C42" t="n">
-        <v>815.2070562058072</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D42" t="n">
-        <v>666.272646544556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E42" t="n">
-        <v>507.0351915391004</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F42" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G42" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H42" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I42" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J42" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K42" t="n">
-        <v>32.45932575975218</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L42" t="n">
-        <v>330.1910807414154</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M42" t="n">
-        <v>729.6092173456783</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N42" t="n">
-        <v>1131.293373622612</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O42" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P42" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q42" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R42" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S42" t="n">
-        <v>1374.066492846507</v>
+        <v>1501.383132142874</v>
       </c>
       <c r="T42" t="n">
-        <v>1278.561831900072</v>
+        <v>1300.480123248367</v>
       </c>
       <c r="U42" t="n">
-        <v>1050.35916443755</v>
+        <v>1072.277455785845</v>
       </c>
       <c r="V42" t="n">
-        <v>815.2070562058072</v>
+        <v>837.1253475541027</v>
       </c>
       <c r="W42" t="n">
-        <v>815.2070562058072</v>
+        <v>582.8879908259012</v>
       </c>
       <c r="X42" t="n">
-        <v>815.2070562058072</v>
+        <v>582.8879908259012</v>
       </c>
       <c r="Y42" t="n">
-        <v>815.2070562058072</v>
+        <v>375.1276920609472</v>
       </c>
     </row>
     <row r="43">
@@ -7600,16 +7600,16 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U43" t="n">
-        <v>361.2466016029501</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="V43" t="n">
-        <v>361.2466016029501</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="W43" t="n">
-        <v>361.2466016029501</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="X43" t="n">
-        <v>133.2570507049327</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="Y43" t="n">
         <v>32.45932575975218</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1232.826956011797</v>
+        <v>401.4218427001639</v>
       </c>
       <c r="C44" t="n">
-        <v>1232.826956011797</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D44" t="n">
-        <v>1232.826956011797</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E44" t="n">
-        <v>847.0387034135531</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F44" t="n">
-        <v>437.1987316995103</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G44" t="n">
         <v>32.45932575975218</v>
@@ -7646,16 +7646,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J44" t="n">
-        <v>70.13987180521491</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K44" t="n">
-        <v>247.3580469011317</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L44" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M44" t="n">
-        <v>838.8947028941453</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N44" t="n">
         <v>1148.836227140252</v>
@@ -7670,28 +7670,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R44" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S44" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T44" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="U44" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="V44" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="W44" t="n">
-        <v>1622.966287987609</v>
+        <v>958.6333901110868</v>
       </c>
       <c r="X44" t="n">
-        <v>1622.966287987609</v>
+        <v>958.6333901110868</v>
       </c>
       <c r="Y44" t="n">
-        <v>1232.826956011797</v>
+        <v>568.4940581352751</v>
       </c>
     </row>
     <row r="45">
@@ -7725,16 +7725,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J45" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K45" t="n">
-        <v>236.9655055809357</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L45" t="n">
-        <v>534.6972605625989</v>
+        <v>505.948365158507</v>
       </c>
       <c r="M45" t="n">
-        <v>934.1153971668618</v>
+        <v>546.7891136313474</v>
       </c>
       <c r="N45" t="n">
         <v>948.4732699082806</v>
@@ -7749,28 +7749,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R45" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S45" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T45" t="n">
-        <v>1173.163483952</v>
+        <v>1422.063279093102</v>
       </c>
       <c r="U45" t="n">
-        <v>944.9608164894781</v>
+        <v>1193.860611630581</v>
       </c>
       <c r="V45" t="n">
-        <v>709.8087082577354</v>
+        <v>958.708503398838</v>
       </c>
       <c r="W45" t="n">
-        <v>455.5713515295337</v>
+        <v>704.4711466706365</v>
       </c>
       <c r="X45" t="n">
-        <v>247.7198513240009</v>
+        <v>496.6196464651036</v>
       </c>
       <c r="Y45" t="n">
-        <v>222.0882603251556</v>
+        <v>288.8593477001497</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1294.179012144411</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="C46" t="n">
-        <v>1294.179012144411</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="D46" t="n">
-        <v>1294.179012144411</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="E46" t="n">
-        <v>1294.179012144411</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="F46" t="n">
-        <v>1294.179012144411</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="G46" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H46" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I46" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J46" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K46" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L46" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M46" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N46" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O46" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P46" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q46" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R46" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S46" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T46" t="n">
-        <v>1622.966287987609</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="U46" t="n">
-        <v>1622.966287987609</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="V46" t="n">
-        <v>1622.966287987609</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="W46" t="n">
-        <v>1622.966287987609</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="X46" t="n">
-        <v>1394.976737089592</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="Y46" t="n">
-        <v>1394.976737089592</v>
+        <v>132.1392625228377</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
@@ -8070,13 +8070,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8219,7 +8219,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8298,10 +8298,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>299.7328472056018</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
@@ -8310,10 +8310,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>168.5314335381781</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>131.3417120833333</v>
@@ -8547,10 +8547,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8778,10 +8778,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>455.0874215304797</v>
+        <v>351.7205150479951</v>
       </c>
       <c r="O12" t="n">
-        <v>112.9628022719302</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9003,19 +9003,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K15" t="n">
-        <v>86.93262649026377</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>186.1735738748421</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>241.3813618149011</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9252,13 +9252,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>455.0874215304797</v>
+        <v>419.1643094528387</v>
       </c>
       <c r="O18" t="n">
-        <v>276.3535930874215</v>
+        <v>67.58604940343855</v>
       </c>
       <c r="P18" t="n">
-        <v>73.77211287831324</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9480,16 +9480,16 @@
         <v>97.05174705344737</v>
       </c>
       <c r="K21" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>391.3774455544766</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>455.0874215304797</v>
+        <v>203.2271928126415</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9723,10 +9723,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>362.3381572675152</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>455.0874215304797</v>
+        <v>351.7205150479949</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9963,13 +9963,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>308.5394070542101</v>
+        <v>390.1250211658772</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>67.58604940343855</v>
       </c>
       <c r="P27" t="n">
-        <v>73.77211287831324</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10191,13 +10191,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>157.1342855878806</v>
       </c>
       <c r="M30" t="n">
-        <v>74.46639351210651</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>455.0874215304797</v>
@@ -10431,7 +10431,7 @@
         <v>86.93262649026376</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>186.1735738748421</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10443,7 +10443,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>133.7959972113199</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10662,16 +10662,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>184.8055467452003</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>455.0874215304797</v>
@@ -10680,7 +10680,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>244.1351504444137</v>
       </c>
       <c r="Q36" t="n">
         <v>99.73813450275543</v>
@@ -10905,7 +10905,7 @@
         <v>86.93262649026376</v>
       </c>
       <c r="L39" t="n">
-        <v>267.4734388209744</v>
+        <v>157.1342855878806</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11148,16 +11148,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>455.0874215304797</v>
+        <v>63.84875129258624</v>
       </c>
       <c r="O42" t="n">
-        <v>319.5347010812061</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11315,7 +11315,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11382,10 +11382,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>103.505681799068</v>
       </c>
       <c r="N45" t="n">
-        <v>63.84875129258624</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>252.3860301008907</v>
       </c>
       <c r="Y11" t="n">
-        <v>268.8928680784753</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23337,25 +23337,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>51.13222266900995</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>101.7653978813093</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23391,19 +23391,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23437,7 +23437,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J13" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>123.3497577082893</v>
+        <v>198.0222341697041</v>
       </c>
       <c r="T13" t="n">
         <v>226.8162656893113</v>
@@ -23492,16 +23492,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23513,7 +23513,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I14" t="n">
-        <v>107.9350322338647</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,22 +23540,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>237.7705109919893</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23619,7 +23619,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>80.58358449827553</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S15" t="n">
         <v>165.8272126914158</v>
@@ -23628,19 +23628,19 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>222.9486523264928</v>
+        <v>202.7107073159006</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23671,10 +23671,10 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I16" t="n">
-        <v>126.1137933559315</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>219.4103988718534</v>
+        <v>123.3497577082893</v>
       </c>
       <c r="T16" t="n">
         <v>226.8162656893113</v>
@@ -23729,10 +23729,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23750,7 +23750,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I17" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,28 +23777,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>112.8556863456974</v>
+        <v>70.41439893299193</v>
       </c>
       <c r="S17" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>278.6148488808455</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23808,7 +23808,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -23817,7 +23817,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>150.2198559240991</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -23865,7 +23865,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>159.1079591185652</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I19" t="n">
-        <v>108.3071674310104</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J19" t="n">
         <v>74.67247646141476</v>
@@ -23953,7 +23953,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>186.5148647619667</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23969,22 +23969,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I20" t="n">
         <v>187.7594695105699</v>
@@ -24014,19 +24014,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>73.93246924377132</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V20" t="n">
-        <v>249.5881180842102</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24045,13 +24045,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>85.40566091718952</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24093,10 +24093,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>80.58358449827551</v>
+        <v>21.7935553071226</v>
       </c>
       <c r="S21" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24108,10 +24108,10 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24178,22 +24178,22 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T22" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.3046124576955</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>153.4545059283734</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>118.7949056563662</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24215,10 +24215,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>12.6594116748854</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H23" t="n">
         <v>333.4403157157206</v>
@@ -24254,25 +24254,25 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T23" t="n">
         <v>220.5164804230398</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>241.0942155799729</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24282,10 +24282,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>85.40566091718952</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24297,7 +24297,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H24" t="n">
         <v>109.1906224126114</v>
@@ -24330,10 +24330,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24348,7 +24348,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>129.6030249771196</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>48.82572532248361</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24424,7 +24424,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>186.7332506408623</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24455,13 +24455,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,25 +24488,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>96.20111734543565</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>56.79311626624468</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24522,10 +24522,10 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -24534,13 +24534,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>78.54202280713804</v>
+        <v>31.5993086532566</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24570,13 +24570,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T27" t="n">
-        <v>86.5173040696166</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24652,7 +24652,7 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T28" t="n">
-        <v>226.8162656893113</v>
+        <v>153.4545059283734</v>
       </c>
       <c r="U28" t="n">
         <v>286.3046124576955</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>213.1612385756531</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24686,7 +24686,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24695,10 +24695,10 @@
         <v>414.7135041305339</v>
       </c>
       <c r="H29" t="n">
-        <v>333.4403157157206</v>
+        <v>229.3213229330854</v>
       </c>
       <c r="I29" t="n">
-        <v>116.3298780827836</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24740,7 +24740,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24756,19 +24756,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -24804,25 +24804,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U30" t="n">
-        <v>70.92487300717744</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>31.59930865325657</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24883,10 +24883,10 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S31" t="n">
-        <v>59.320056923945</v>
+        <v>42.52646880529997</v>
       </c>
       <c r="T31" t="n">
         <v>226.8162656893113</v>
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24929,10 +24929,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I32" t="n">
         <v>187.7594695105699</v>
@@ -24965,25 +24965,25 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V32" t="n">
-        <v>159.7401620719344</v>
+        <v>241.0942155799728</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25008,13 +25008,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>118.8844985375344</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,10 +25041,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>31.5993086532565</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>198.8939788055617</v>
@@ -25132,16 +25132,16 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>213.1612385756534</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>118.794905656366</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25151,16 +25151,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25169,10 +25169,10 @@
         <v>414.7135041305339</v>
       </c>
       <c r="H35" t="n">
-        <v>333.4403157157206</v>
+        <v>294.6204456474499</v>
       </c>
       <c r="I35" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,16 +25202,16 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S35" t="n">
-        <v>194.6923193531288</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25220,7 +25220,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25233,25 +25233,25 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.0282495084215</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25281,25 +25281,25 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S36" t="n">
-        <v>165.8272126914158</v>
+        <v>78.52437462028948</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>12.88145345212118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25321,19 +25321,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>147.525532489171</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J37" t="n">
-        <v>56.55224943852484</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25394,13 +25394,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>233.6815226228331</v>
       </c>
       <c r="G38" t="n">
         <v>414.7135041305339</v>
@@ -25436,16 +25436,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25454,7 +25454,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>252.3860301008911</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25467,10 +25467,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -25515,16 +25515,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>140.0198410333366</v>
       </c>
       <c r="T39" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>199.7839603676826</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25591,19 +25591,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>219.4103988718534</v>
+        <v>123.3497577082893</v>
       </c>
       <c r="T40" t="n">
         <v>226.8162656893113</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25615,7 +25615,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>179.3898627250244</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25637,16 +25637,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G41" t="n">
-        <v>141.5749915916986</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,28 +25673,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>342.0912594401619</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25704,28 +25704,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,13 +25752,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>45.45988840512781</v>
       </c>
       <c r="T42" t="n">
-        <v>104.344364468591</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25767,13 +25767,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25840,7 +25840,7 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25849,10 +25849,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>118.794905656366</v>
+        <v>179.3898627250244</v>
       </c>
     </row>
     <row r="44">
@@ -25862,22 +25862,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>217.3323483827205</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>14.02149225017337</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H44" t="n">
         <v>333.4403157157206</v>
@@ -25910,10 +25910,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>220.5164804230398</v>
@@ -25925,7 +25925,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25941,7 +25941,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>100.4298071486232</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -25989,10 +25989,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26010,7 +26010,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>180.3074206884475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>80.04223248620877</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26035,7 +26035,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.7266695472104</v>
+        <v>69.04353215175577</v>
       </c>
       <c r="H46" t="n">
         <v>159.8772180037952</v>
@@ -26074,7 +26074,7 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T46" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.3046124576955</v>
@@ -26086,7 +26086,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>493478.4817455924</v>
+        <v>493478.4817455925</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>493478.4817455924</v>
+        <v>493478.4817455925</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>493478.4817455923</v>
+        <v>493478.4817455922</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>493478.4817455921</v>
+        <v>493478.4817455923</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>493478.481745592</v>
+        <v>493478.4817455921</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>493478.4817455921</v>
+        <v>493478.4817455922</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>493478.4817455922</v>
+        <v>493478.4817455924</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>493478.481745592</v>
+        <v>493478.4817455922</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>493478.4817455921</v>
+        <v>493478.4817455923</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="C2" t="n">
         <v>554203.1946583912</v>
@@ -26320,28 +26320,28 @@
         <v>554203.1946583912</v>
       </c>
       <c r="E2" t="n">
-        <v>288399.0110372188</v>
+        <v>288399.0110372189</v>
       </c>
       <c r="F2" t="n">
-        <v>288399.0110372188</v>
+        <v>288399.0110372189</v>
       </c>
       <c r="G2" t="n">
+        <v>288399.0110372189</v>
+      </c>
+      <c r="H2" t="n">
         <v>288399.011037219</v>
       </c>
-      <c r="H2" t="n">
-        <v>288399.0110372189</v>
-      </c>
       <c r="I2" t="n">
-        <v>288399.0110372189</v>
+        <v>288399.011037219</v>
       </c>
       <c r="J2" t="n">
-        <v>288399.0110372189</v>
+        <v>288399.011037219</v>
       </c>
       <c r="K2" t="n">
+        <v>288399.0110372191</v>
+      </c>
+      <c r="L2" t="n">
         <v>288399.011037219</v>
-      </c>
-      <c r="L2" t="n">
-        <v>288399.0110372189</v>
       </c>
       <c r="M2" t="n">
         <v>288399.0110372188</v>
@@ -26350,7 +26350,7 @@
         <v>288399.011037219</v>
       </c>
       <c r="O2" t="n">
-        <v>288399.0110372189</v>
+        <v>288399.011037219</v>
       </c>
       <c r="P2" t="n">
         <v>288399.0110372191</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>314967.8580094805</v>
+        <v>312595.3744187171</v>
       </c>
       <c r="C4" t="n">
-        <v>314967.8580094805</v>
+        <v>312595.3744187172</v>
       </c>
       <c r="D4" t="n">
-        <v>314967.8580094805</v>
+        <v>312595.3744187172</v>
       </c>
       <c r="E4" t="n">
-        <v>36904.84165070047</v>
+        <v>34482.31175973668</v>
       </c>
       <c r="F4" t="n">
-        <v>36904.84165070047</v>
+        <v>34482.31175973667</v>
       </c>
       <c r="G4" t="n">
-        <v>36904.84165070046</v>
+        <v>34482.31175973667</v>
       </c>
       <c r="H4" t="n">
-        <v>36904.84165070047</v>
+        <v>34482.31175973668</v>
       </c>
       <c r="I4" t="n">
-        <v>36904.84165070046</v>
+        <v>34482.31175973668</v>
       </c>
       <c r="J4" t="n">
-        <v>36904.84165070047</v>
+        <v>34482.31175973668</v>
       </c>
       <c r="K4" t="n">
-        <v>36904.84165070047</v>
+        <v>34482.31175973667</v>
       </c>
       <c r="L4" t="n">
-        <v>36904.84165070046</v>
+        <v>34482.31175973667</v>
       </c>
       <c r="M4" t="n">
-        <v>36904.84165070046</v>
+        <v>34482.31175973667</v>
       </c>
       <c r="N4" t="n">
-        <v>36904.84165070046</v>
+        <v>34482.31175973667</v>
       </c>
       <c r="O4" t="n">
-        <v>36904.84165070047</v>
+        <v>34482.31175973667</v>
       </c>
       <c r="P4" t="n">
-        <v>36904.84165070046</v>
+        <v>34482.31175973668</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>110184.6363536014</v>
+        <v>112557.1199443646</v>
       </c>
       <c r="C6" t="n">
-        <v>190954.067885149</v>
+        <v>193326.5514759123</v>
       </c>
       <c r="D6" t="n">
-        <v>190954.067885149</v>
+        <v>193326.5514759123</v>
       </c>
       <c r="E6" t="n">
-        <v>56689.64634751402</v>
+        <v>59112.17623847787</v>
       </c>
       <c r="F6" t="n">
-        <v>223629.8164727608</v>
+        <v>226052.3463637247</v>
       </c>
       <c r="G6" t="n">
-        <v>223629.816472761</v>
+        <v>226052.3463637246</v>
       </c>
       <c r="H6" t="n">
-        <v>223629.8164727608</v>
+        <v>226052.3463637247</v>
       </c>
       <c r="I6" t="n">
-        <v>223629.8164727608</v>
+        <v>226052.3463637248</v>
       </c>
       <c r="J6" t="n">
-        <v>160569.8738736546</v>
+        <v>162992.4037646186</v>
       </c>
       <c r="K6" t="n">
-        <v>223629.816472761</v>
+        <v>226052.3463637248</v>
       </c>
       <c r="L6" t="n">
-        <v>223629.8164727609</v>
+        <v>226052.3463637247</v>
       </c>
       <c r="M6" t="n">
-        <v>182579.1186103129</v>
+        <v>185001.6485012766</v>
       </c>
       <c r="N6" t="n">
-        <v>223629.816472761</v>
+        <v>226052.3463637247</v>
       </c>
       <c r="O6" t="n">
-        <v>223629.8164727608</v>
+        <v>226052.3463637248</v>
       </c>
       <c r="P6" t="n">
-        <v>223629.8164727611</v>
+        <v>226052.3463637248</v>
       </c>
     </row>
   </sheetData>
@@ -27379,16 +27379,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>209.8933976134044</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27427,10 +27427,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -27439,7 +27439,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>109.2217077258761</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27458,28 +27458,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>92.07258132516672</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27506,19 +27506,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>126.7115709197353</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27558,10 +27558,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>71.32518834398849</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,16 +27576,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,19 +27625,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>191.9749582998768</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,22 +27658,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
-        <v>302.5787168521348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27716,7 +27716,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27752,13 +27752,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>101.7811932823757</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27795,10 +27795,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>68.60374760888197</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>192.6272392768849</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27865,16 +27865,16 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>301.251446211517</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,28 +27895,28 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27977,22 +27977,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>3.137964959060056</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>61.52742449360861</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31987,22 +31987,22 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5892333846011533</v>
+        <v>0.5892333846011534</v>
       </c>
       <c r="H14" t="n">
-        <v>6.034486400046562</v>
+        <v>6.034486400046564</v>
       </c>
       <c r="I14" t="n">
-        <v>22.71642005983598</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J14" t="n">
-        <v>50.01044697629218</v>
+        <v>50.01044697629219</v>
       </c>
       <c r="K14" t="n">
-        <v>74.952696146459</v>
+        <v>74.95269614645902</v>
       </c>
       <c r="L14" t="n">
-        <v>92.98544734044657</v>
+        <v>92.9854473404466</v>
       </c>
       <c r="M14" t="n">
         <v>103.4642265438473</v>
@@ -32011,25 +32011,25 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O14" t="n">
-        <v>99.27919642971764</v>
+        <v>99.27919642971766</v>
       </c>
       <c r="P14" t="n">
-        <v>84.73249724737666</v>
+        <v>84.73249724737667</v>
       </c>
       <c r="Q14" t="n">
-        <v>63.63057666134784</v>
+        <v>63.63057666134785</v>
       </c>
       <c r="R14" t="n">
         <v>37.01343159545223</v>
       </c>
       <c r="S14" t="n">
-        <v>13.42715575159879</v>
+        <v>13.4271557515988</v>
       </c>
       <c r="T14" t="n">
         <v>2.57936914109155</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04713867076809225</v>
+        <v>0.04713867076809226</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,7 +32069,7 @@
         <v>0.3152676547891928</v>
       </c>
       <c r="H15" t="n">
-        <v>3.044821823885099</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I15" t="n">
         <v>10.85461004427703</v>
@@ -32078,22 +32078,22 @@
         <v>29.78587961321931</v>
       </c>
       <c r="K15" t="n">
-        <v>50.90881248409522</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L15" t="n">
-        <v>68.45318092253943</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M15" t="n">
-        <v>79.88163340864764</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N15" t="n">
-        <v>81.99586254975588</v>
+        <v>81.99586254975591</v>
       </c>
       <c r="O15" t="n">
-        <v>75.01019504100587</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P15" t="n">
-        <v>60.202294536017</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q15" t="n">
         <v>40.24363958326609</v>
@@ -32102,7 +32102,7 @@
         <v>19.57424965436761</v>
       </c>
       <c r="S15" t="n">
-        <v>5.855958412422064</v>
+        <v>5.855958412422065</v>
       </c>
       <c r="T15" t="n">
         <v>1.270749889259948</v>
@@ -32145,34 +32145,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2643098112483453</v>
+        <v>0.2643098112483454</v>
       </c>
       <c r="H16" t="n">
-        <v>2.349954503644381</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I16" t="n">
-        <v>7.948516869177515</v>
+        <v>7.948516869177517</v>
       </c>
       <c r="J16" t="n">
-        <v>18.68670365525801</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K16" t="n">
         <v>30.70799443412594</v>
       </c>
       <c r="L16" t="n">
-        <v>39.29566048323128</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M16" t="n">
-        <v>41.43176432141108</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N16" t="n">
-        <v>40.44660957039455</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O16" t="n">
-        <v>37.35899041172068</v>
+        <v>37.35899041172069</v>
       </c>
       <c r="P16" t="n">
-        <v>31.96707026225441</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q16" t="n">
         <v>22.13234246735009</v>
@@ -32181,7 +32181,7 @@
         <v>11.88433024031196</v>
       </c>
       <c r="S16" t="n">
-        <v>4.606199165118889</v>
+        <v>4.60619916511889</v>
       </c>
       <c r="T16" t="n">
         <v>1.129323738970203</v>
@@ -34781,7 +34781,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
@@ -34790,13 +34790,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35018,10 +35018,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
@@ -35030,10 +35030,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35258,7 +35258,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>29.03928828696146</v>
       </c>
       <c r="K12" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>300.7391464461244</v>
@@ -35498,10 +35498,10 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N12" t="n">
-        <v>405.7415719969023</v>
+        <v>302.3746655144177</v>
       </c>
       <c r="O12" t="n">
-        <v>45.37675286849161</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P12" t="n">
         <v>244.6906557616239</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>38.06115762167966</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K14" t="n">
         <v>179.0082576726432</v>
@@ -35656,7 +35656,7 @@
         <v>322.6315268094071</v>
       </c>
       <c r="N14" t="n">
-        <v>313.0722467132386</v>
+        <v>313.0722467132387</v>
       </c>
       <c r="O14" t="n">
         <v>249.9811662707763</v>
@@ -35665,7 +35665,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q14" t="n">
-        <v>53.63987744680303</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>29.03928828696145</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>300.7391464461244</v>
+        <v>116.0723750175074</v>
       </c>
       <c r="M15" t="n">
         <v>403.4526632366292</v>
       </c>
       <c r="N15" t="n">
-        <v>192.0355122813237</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O15" t="n">
         <v>326.276269873291</v>
@@ -35805,16 +35805,16 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>8.438502608243084</v>
+        <v>8.438502608243091</v>
       </c>
       <c r="L16" t="n">
-        <v>66.88568574354741</v>
+        <v>66.88568574354743</v>
       </c>
       <c r="M16" t="n">
-        <v>81.01564128325167</v>
+        <v>81.01564128325168</v>
       </c>
       <c r="N16" t="n">
-        <v>84.57878194962314</v>
+        <v>84.57878194962315</v>
       </c>
       <c r="O16" t="n">
         <v>61.94411832576036</v>
@@ -35972,13 +35972,13 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N18" t="n">
-        <v>405.7415719969023</v>
+        <v>369.8184599192613</v>
       </c>
       <c r="O18" t="n">
-        <v>208.7675436839829</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q18" t="n">
         <v>110.3391532330937</v>
@@ -36200,16 +36200,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L21" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M21" t="n">
-        <v>329.1250450411059</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N21" t="n">
-        <v>405.7415719969023</v>
+        <v>153.8813432790641</v>
       </c>
       <c r="O21" t="n">
         <v>326.276269873291</v>
@@ -36443,10 +36443,10 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M24" t="n">
-        <v>300.0857567541445</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N24" t="n">
-        <v>405.7415719969023</v>
+        <v>302.3746655144175</v>
       </c>
       <c r="O24" t="n">
         <v>326.276269873291</v>
@@ -36683,13 +36683,13 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N27" t="n">
-        <v>259.1935575206327</v>
+        <v>340.7791716322998</v>
       </c>
       <c r="O27" t="n">
-        <v>326.276269873291</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q27" t="n">
         <v>110.3391532330937</v>
@@ -36911,13 +36911,13 @@
         <v>29.03928828696146</v>
       </c>
       <c r="K30" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>300.7391464461244</v>
+        <v>87.03308673054588</v>
       </c>
       <c r="M30" t="n">
-        <v>12.21399299873585</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N30" t="n">
         <v>405.7415719969023</v>
@@ -37151,7 +37151,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>300.7391464461244</v>
+        <v>116.0723750175074</v>
       </c>
       <c r="M33" t="n">
         <v>403.4526632366292</v>
@@ -37163,7 +37163,7 @@
         <v>326.276269873291</v>
       </c>
       <c r="P33" t="n">
-        <v>60.02388433300664</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q33" t="n">
         <v>110.3391532330937</v>
@@ -37382,16 +37382,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M36" t="n">
-        <v>122.5531462318296</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N36" t="n">
         <v>405.7415719969023</v>
@@ -37400,7 +37400,7 @@
         <v>326.276269873291</v>
       </c>
       <c r="P36" t="n">
-        <v>244.6906557616239</v>
+        <v>170.3630375661004</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37558,7 +37558,7 @@
         <v>249.9811662707763</v>
       </c>
       <c r="P38" t="n">
-        <v>175.2982096635897</v>
+        <v>175.2982096635898</v>
       </c>
       <c r="Q38" t="n">
         <v>53.63987744680304</v>
@@ -37625,7 +37625,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>197.3722399636397</v>
+        <v>87.03308673054588</v>
       </c>
       <c r="M39" t="n">
         <v>403.4526632366292</v>
@@ -37640,7 +37640,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167952</v>
       </c>
       <c r="K41" t="n">
         <v>179.0082576726432</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L42" t="n">
         <v>300.7391464461244</v>
@@ -37868,16 +37868,16 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N42" t="n">
-        <v>405.7415719969023</v>
+        <v>14.50290175900885</v>
       </c>
       <c r="O42" t="n">
-        <v>251.9486516777676</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P42" t="n">
         <v>244.6906557616239</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>38.06115762167952</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K44" t="n">
         <v>179.0082576726432</v>
@@ -38035,7 +38035,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q44" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680312</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>177.5326105223148</v>
@@ -38102,10 +38102,10 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M45" t="n">
-        <v>403.4526632366292</v>
+        <v>41.25328128569732</v>
       </c>
       <c r="N45" t="n">
-        <v>14.50290175900885</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O45" t="n">
         <v>326.276269873291</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_4_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_4_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1553650.955405031</v>
+        <v>1570296.07470872</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713587.7684111178</v>
+        <v>713587.768411118</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6925849.82567216</v>
+        <v>6925849.825672158</v>
       </c>
     </row>
     <row r="11">
@@ -659,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>196.9826481283071</v>
+        <v>85.07689943748613</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -680,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -704,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -753,13 +755,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>73.45315777508635</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>153.6477407770215</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -865,16 +867,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,64 +907,64 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>223.3277792152583</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,22 +974,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -996,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>125.4500854222221</v>
       </c>
     </row>
     <row r="7">
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J7" t="n">
-        <v>24.7554325077908</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1093,10 +1095,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>114.0512913036181</v>
+        <v>50.46697834767978</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1175,19 +1177,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1218,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1227,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1263,22 +1265,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>105.8013328752207</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>190.167558667311</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1330,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1354,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>133.186967585368</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1376,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>50.44212239148851</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,25 +1417,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>117.3450705775783</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,10 +1448,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>121.5762763193058</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -1494,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1515,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>1.718728888479093</v>
       </c>
     </row>
     <row r="13">
@@ -1549,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S13" t="n">
-        <v>21.3881647021493</v>
+        <v>96.06064116356413</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>79.4509655584328</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1664,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>89.98174747814556</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1683,16 +1685,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>29.63438288880484</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -1734,25 +1736,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>48.98427584501901</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1813,7 +1815,7 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S16" t="n">
-        <v>96.06064116356407</v>
+        <v>96.06064116356413</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1844,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1859,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I17" t="n">
         <v>187.7594695105699</v>
@@ -1889,22 +1891,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>42.44128741270552</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>195.5929138346465</v>
+        <v>139.8604767151055</v>
       </c>
       <c r="T17" t="n">
         <v>220.5164804230398</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1920,28 +1922,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>7.425224531301852</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,25 +1970,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T18" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>88.93004835708089</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -2050,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3046124576955</v>
+        <v>106.0890042129126</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2065,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>39.19479062707041</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>11.4596767319065</v>
       </c>
       <c r="G20" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,10 +2128,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>38.92321710192613</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2138,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2160,25 +2162,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>109.3681045956056</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>58.79002919115291</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S21" t="n">
         <v>165.8272126914158</v>
@@ -2217,7 +2219,7 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2226,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2257,10 +2259,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>24.01066093403993</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2296,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>98.68313739545464</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2327,13 +2329,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2363,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>80.43746417864021</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2375,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.6368850984962</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,28 +2396,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>81.12752273267782</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>17.62046650691581</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>80.58358449827553</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T24" t="n">
         <v>198.8939788055617</v>
@@ -2457,13 +2459,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2479,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>99.78974769572875</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2536,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>38.97640474817464</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2555,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>193.2037869846349</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2600,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T26" t="n">
-        <v>163.7233641567951</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U26" t="n">
         <v>251.2985142370684</v>
@@ -2615,13 +2617,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2634,13 +2636,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -2649,10 +2651,10 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H27" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>46.94271415388144</v>
+        <v>71.07272943289193</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,22 +2681,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -2764,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
         <v>73.36175976093789</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2789,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>85.67417889435364</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>104.1189927826352</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2852,10 +2854,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2868,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>29.45136182926544</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -2916,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>174.1736765502209</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2953,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>176.8839300665534</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3007,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>106.0890042129125</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3035,19 +3037,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>116.5836940016777</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3086,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>86.65804289016209</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,22 +3107,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>18.14375097088705</v>
+        <v>39.43167000088686</v>
       </c>
       <c r="H33" t="n">
         <v>109.1906224126114</v>
@@ -3153,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>176.8839300665534</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3244,10 +3246,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>73.3617597609376</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3266,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>86.65804289016221</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3281,10 +3283,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>38.81987006827074</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3320,16 +3322,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3363,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>46.665026084912</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S36" t="n">
-        <v>87.30283807112627</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T36" t="n">
         <v>198.8939788055617</v>
@@ -3408,7 +3410,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3433,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>12.35168551462418</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>106.0890042129125</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3506,13 +3508,13 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>173.1945231188783</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3557,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>141.6396260835078</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3582,10 +3584,10 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3594,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3627,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>80.58358449827551</v>
+        <v>29.96704369376033</v>
       </c>
       <c r="S39" t="n">
-        <v>25.80737165807912</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T39" t="n">
         <v>198.8939788055617</v>
@@ -3642,7 +3644,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3703,13 +3705,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>96.06064116356407</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3724,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>99.78974769572852</v>
       </c>
     </row>
     <row r="41">
@@ -3743,10 +3745,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>47.74806282379132</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>405.7415719969023</v>
@@ -3755,7 +3757,7 @@
         <v>405.7415719969023</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3800,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>27.63984123830711</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3822,22 +3824,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,25 +3866,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S42" t="n">
-        <v>120.3673242862879</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>174.1736765502209</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3913,13 +3915,13 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>103.3249685652703</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3952,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3964,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>39.19479062707041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>165.40149328076</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3989,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>39.55573210186845</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4022,19 +4024,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4053,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>66.10337650124416</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4068,13 +4070,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>87.30283807112622</v>
       </c>
       <c r="H45" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4147,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>98.68313739545464</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>39.19479062707041</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>720.6083788665362</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="C2" t="n">
-        <v>477.1596022224361</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="D2" t="n">
-        <v>477.1596022224361</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="E2" t="n">
-        <v>233.7108255783361</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="F2" t="n">
-        <v>34.73845373156126</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4352,28 +4354,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="X2" t="n">
-        <v>964.0571555106362</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="Y2" t="n">
-        <v>720.6083788665362</v>
+        <v>132.7447050367114</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>615.2751726504672</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="C3" t="n">
-        <v>440.8221433693402</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="D3" t="n">
-        <v>291.8877337080889</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E3" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>178.8501590306595</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M3" t="n">
-        <v>417.4543050195419</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4431,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>615.2751726504672</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>615.2751726504672</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V3" t="n">
-        <v>615.2751726504672</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W3" t="n">
-        <v>615.2751726504672</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X3" t="n">
-        <v>615.2751726504672</v>
+        <v>337.1850224443177</v>
       </c>
       <c r="Y3" t="n">
-        <v>615.2751726504672</v>
+        <v>337.1850224443177</v>
       </c>
     </row>
     <row r="4">
@@ -4513,13 +4515,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
         <v>19.28114311021272</v>
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>495.259035872464</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C5" t="n">
-        <v>495.259035872464</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D5" t="n">
-        <v>495.259035872464</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E5" t="n">
-        <v>495.259035872464</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F5" t="n">
-        <v>488.3135351232606</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G5" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4595,22 +4597,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>495.259035872464</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>495.259035872464</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>495.259035872464</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>495.259035872464</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y5" t="n">
-        <v>495.259035872464</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>466.9379658470897</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>466.9379658470897</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4650,46 +4652,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>383.2428491569326</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
-        <v>621.8469951458151</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>860.4511411346975</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U6" t="n">
-        <v>259.0600686093459</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V6" t="n">
-        <v>23.90796037760316</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W6" t="n">
-        <v>19.28114311021272</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X6" t="n">
-        <v>19.28114311021272</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>635.1533028671577</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E7" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F7" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G7" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H7" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I7" t="n">
-        <v>66.78106667958005</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
         <v>41.77557929797318</v>
@@ -4741,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>366.1018663125844</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="C8" t="n">
-        <v>366.1018663125844</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="D8" t="n">
-        <v>366.1018663125844</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="E8" t="n">
-        <v>366.1018663125844</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="F8" t="n">
-        <v>359.156365563381</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="G8" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4823,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T8" t="n">
-        <v>366.1018663125844</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U8" t="n">
-        <v>366.1018663125844</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="V8" t="n">
-        <v>366.1018663125844</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="W8" t="n">
-        <v>366.1018663125844</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="X8" t="n">
-        <v>366.1018663125844</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="Y8" t="n">
-        <v>366.1018663125844</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>292.6418663608746</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>292.6418663608746</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>292.6418663608746</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H9" t="n">
         <v>20.03527576299844</v>
@@ -4884,22 +4886,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>613.2059550252818</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O9" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4911,22 +4913,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>756.0175928562282</v>
       </c>
       <c r="U9" t="n">
-        <v>862.8876260635219</v>
+        <v>527.7939745926174</v>
       </c>
       <c r="V9" t="n">
-        <v>627.7355178317791</v>
+        <v>292.6418663608746</v>
       </c>
       <c r="W9" t="n">
-        <v>435.6470747334852</v>
+        <v>292.6418663608746</v>
       </c>
       <c r="X9" t="n">
-        <v>227.7955745279523</v>
+        <v>292.6418663608746</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299844</v>
+        <v>292.6418663608746</v>
       </c>
     </row>
     <row r="10">
@@ -4978,28 +4980,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
         <v>19.28114311021272</v>
@@ -5015,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>32.45932575975219</v>
+        <v>995.6636466587834</v>
       </c>
       <c r="C11" t="n">
-        <v>32.45932575975219</v>
+        <v>995.6636466587834</v>
       </c>
       <c r="D11" t="n">
-        <v>32.45932575975219</v>
+        <v>995.6636466587834</v>
       </c>
       <c r="E11" t="n">
-        <v>32.45932575975219</v>
+        <v>609.8753940605391</v>
       </c>
       <c r="F11" t="n">
-        <v>32.45932575975219</v>
+        <v>609.8753940605391</v>
       </c>
       <c r="G11" t="n">
-        <v>32.45932575975219</v>
+        <v>558.9237552812577</v>
       </c>
       <c r="H11" t="n">
-        <v>32.45932575975219</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I11" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J11" t="n">
-        <v>70.13987180521485</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K11" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L11" t="n">
         <v>519.4894913528326</v>
       </c>
       <c r="M11" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N11" t="n">
         <v>1148.836227140252</v>
@@ -5063,28 +5065,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R11" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S11" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T11" t="n">
-        <v>1088.658125761969</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U11" t="n">
-        <v>834.8212426942232</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="V11" t="n">
-        <v>503.7583553506526</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="W11" t="n">
-        <v>150.9897000805384</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="X11" t="n">
-        <v>32.45932575975219</v>
+        <v>995.6636466587834</v>
       </c>
       <c r="Y11" t="n">
-        <v>32.45932575975219</v>
+        <v>995.6636466587834</v>
       </c>
     </row>
     <row r="12">
@@ -5094,7 +5096,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>938.0113757202575</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="C12" t="n">
         <v>815.2070562058072</v>
@@ -5115,55 +5117,55 @@
         <v>111.7947023326189</v>
       </c>
       <c r="I12" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J12" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K12" t="n">
-        <v>61.20822116384403</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L12" t="n">
-        <v>358.9399761455072</v>
+        <v>505.948365158507</v>
       </c>
       <c r="M12" t="n">
-        <v>758.3581127497702</v>
+        <v>905.36650176277</v>
       </c>
       <c r="N12" t="n">
-        <v>1057.709031609044</v>
+        <v>1307.050658039703</v>
       </c>
       <c r="O12" t="n">
-        <v>1380.722538783602</v>
+        <v>1307.050658039703</v>
       </c>
       <c r="P12" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q12" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R12" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S12" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T12" t="n">
-        <v>1173.163483952</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U12" t="n">
-        <v>1173.163483952</v>
+        <v>1394.763620525087</v>
       </c>
       <c r="V12" t="n">
-        <v>938.0113757202575</v>
+        <v>1159.611512293345</v>
       </c>
       <c r="W12" t="n">
-        <v>938.0113757202575</v>
+        <v>1159.611512293345</v>
       </c>
       <c r="X12" t="n">
-        <v>938.0113757202575</v>
+        <v>1159.611512293345</v>
       </c>
       <c r="Y12" t="n">
-        <v>938.0113757202575</v>
+        <v>1157.875422507002</v>
       </c>
     </row>
     <row r="13">
@@ -5173,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C13" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D13" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E13" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F13" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G13" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H13" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I13" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K13" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L13" t="n">
         <v>107.0302722280248</v>
@@ -5221,28 +5223,28 @@
         <v>296.5701361642185</v>
       </c>
       <c r="R13" t="n">
-        <v>129.4902764300189</v>
+        <v>129.490276430019</v>
       </c>
       <c r="S13" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="T13" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="U13" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V13" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W13" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X13" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y13" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1145.475793905159</v>
+        <v>859.3611977507176</v>
       </c>
       <c r="C14" t="n">
-        <v>776.5132769647469</v>
+        <v>859.3611977507176</v>
       </c>
       <c r="D14" t="n">
-        <v>418.2475783579964</v>
+        <v>859.3611977507176</v>
       </c>
       <c r="E14" t="n">
-        <v>32.45932575975218</v>
+        <v>859.3611977507176</v>
       </c>
       <c r="F14" t="n">
-        <v>32.45932575975218</v>
+        <v>859.3611977507176</v>
       </c>
       <c r="G14" t="n">
-        <v>32.45932575975218</v>
+        <v>449.5212260366748</v>
       </c>
       <c r="H14" t="n">
-        <v>32.45932575975218</v>
+        <v>112.7128263238257</v>
       </c>
       <c r="I14" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J14" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K14" t="n">
         <v>247.3580469011318</v>
       </c>
       <c r="L14" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M14" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N14" t="n">
         <v>1148.836227140252</v>
@@ -5312,16 +5314,16 @@
         <v>1622.966287987609</v>
       </c>
       <c r="V14" t="n">
-        <v>1532.07563396928</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W14" t="n">
-        <v>1532.07563396928</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X14" t="n">
-        <v>1532.07563396928</v>
+        <v>1249.500529726529</v>
       </c>
       <c r="Y14" t="n">
-        <v>1532.07563396928</v>
+        <v>859.3611977507176</v>
       </c>
     </row>
     <row r="15">
@@ -5331,13 +5333,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>989.6600854869342</v>
+        <v>536.9689116288023</v>
       </c>
       <c r="C15" t="n">
-        <v>815.2070562058072</v>
+        <v>536.9689116288023</v>
       </c>
       <c r="D15" t="n">
-        <v>666.272646544556</v>
+        <v>536.9689116288023</v>
       </c>
       <c r="E15" t="n">
         <v>507.0351915391004</v>
@@ -5361,10 +5363,10 @@
         <v>32.45932575975218</v>
       </c>
       <c r="L15" t="n">
-        <v>147.3709770270845</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M15" t="n">
-        <v>546.7891136313474</v>
+        <v>729.6092173456784</v>
       </c>
       <c r="N15" t="n">
         <v>948.4732699082806</v>
@@ -5382,25 +5384,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S15" t="n">
-        <v>1622.966287987609</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T15" t="n">
-        <v>1622.966287987609</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U15" t="n">
-        <v>1622.966287987609</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="V15" t="n">
-        <v>1622.966287987609</v>
+        <v>791.2062683570039</v>
       </c>
       <c r="W15" t="n">
-        <v>1573.487221477489</v>
+        <v>536.9689116288023</v>
       </c>
       <c r="X15" t="n">
-        <v>1365.635721271956</v>
+        <v>536.9689116288023</v>
       </c>
       <c r="Y15" t="n">
-        <v>1157.875422507002</v>
+        <v>536.9689116288023</v>
       </c>
     </row>
     <row r="16">
@@ -5458,7 +5460,7 @@
         <v>296.5701361642185</v>
       </c>
       <c r="R16" t="n">
-        <v>129.4902764300189</v>
+        <v>129.490276430019</v>
       </c>
       <c r="S16" t="n">
         <v>32.45932575975218</v>
@@ -5489,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>222.1153555684087</v>
+        <v>927.8862722216695</v>
       </c>
       <c r="C17" t="n">
-        <v>222.1153555684087</v>
+        <v>558.9237552812579</v>
       </c>
       <c r="D17" t="n">
-        <v>222.1153555684087</v>
+        <v>558.9237552812579</v>
       </c>
       <c r="E17" t="n">
-        <v>222.1153555684087</v>
+        <v>558.9237552812579</v>
       </c>
       <c r="F17" t="n">
-        <v>222.1153555684087</v>
+        <v>558.9237552812579</v>
       </c>
       <c r="G17" t="n">
-        <v>222.1153555684087</v>
+        <v>558.9237552812579</v>
       </c>
       <c r="H17" t="n">
         <v>222.1153555684087</v>
       </c>
       <c r="I17" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J17" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K17" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L17" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M17" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N17" t="n">
         <v>1148.836227140252</v>
@@ -5537,28 +5539,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R17" t="n">
-        <v>1580.096300702048</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S17" t="n">
-        <v>1382.527700869072</v>
+        <v>1481.693079184472</v>
       </c>
       <c r="T17" t="n">
-        <v>1159.783781249839</v>
+        <v>1258.94915956524</v>
       </c>
       <c r="U17" t="n">
-        <v>905.9468981820935</v>
+        <v>1258.94915956524</v>
       </c>
       <c r="V17" t="n">
-        <v>574.8840108385228</v>
+        <v>927.8862722216695</v>
       </c>
       <c r="W17" t="n">
-        <v>222.1153555684087</v>
+        <v>927.8862722216695</v>
       </c>
       <c r="X17" t="n">
-        <v>222.1153555684087</v>
+        <v>927.8862722216695</v>
       </c>
       <c r="Y17" t="n">
-        <v>222.1153555684087</v>
+        <v>927.8862722216695</v>
       </c>
     </row>
     <row r="18">
@@ -5568,43 +5570,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>39.95955255904698</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="C18" t="n">
-        <v>39.95955255904698</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D18" t="n">
-        <v>39.95955255904698</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E18" t="n">
-        <v>32.45932575975218</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F18" t="n">
-        <v>32.45932575975218</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G18" t="n">
-        <v>32.45932575975218</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H18" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I18" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J18" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K18" t="n">
-        <v>208.2166101768439</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L18" t="n">
-        <v>505.948365158507</v>
+        <v>147.3709770270845</v>
       </c>
       <c r="M18" t="n">
-        <v>905.36650176277</v>
+        <v>546.7891136313475</v>
       </c>
       <c r="N18" t="n">
-        <v>1271.486777082839</v>
+        <v>948.4732699082808</v>
       </c>
       <c r="O18" t="n">
         <v>1271.486777082839</v>
@@ -5616,28 +5618,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R18" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S18" t="n">
-        <v>1374.066492846507</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T18" t="n">
-        <v>1173.163483952</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="U18" t="n">
-        <v>944.9608164894781</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="V18" t="n">
-        <v>709.8087082577354</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="W18" t="n">
-        <v>455.5713515295337</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="X18" t="n">
-        <v>247.7198513240009</v>
+        <v>1365.635721271956</v>
       </c>
       <c r="Y18" t="n">
-        <v>39.95955255904698</v>
+        <v>1157.875422507002</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K19" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L19" t="n">
         <v>107.0302722280248</v>
@@ -5698,25 +5700,25 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S19" t="n">
-        <v>361.2466016029501</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="T19" t="n">
-        <v>361.2466016029501</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="U19" t="n">
-        <v>72.05002336285361</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="V19" t="n">
-        <v>72.05002336285361</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="W19" t="n">
-        <v>72.05002336285361</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="20">
@@ -5726,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1197.050067012451</v>
+        <v>980.3391580376302</v>
       </c>
       <c r="C20" t="n">
-        <v>828.0875500720392</v>
+        <v>980.3391580376302</v>
       </c>
       <c r="D20" t="n">
-        <v>828.0875500720392</v>
+        <v>980.3391580376302</v>
       </c>
       <c r="E20" t="n">
-        <v>442.2992974737949</v>
+        <v>980.3391580376302</v>
       </c>
       <c r="F20" t="n">
-        <v>442.2992974737949</v>
+        <v>968.7637269953004</v>
       </c>
       <c r="G20" t="n">
-        <v>32.45932575975218</v>
+        <v>558.9237552812577</v>
       </c>
       <c r="H20" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I20" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J20" t="n">
-        <v>70.13987180521497</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K20" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L20" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M20" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N20" t="n">
         <v>1148.836227140252</v>
@@ -5774,28 +5776,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R20" t="n">
-        <v>1583.649907076573</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S20" t="n">
-        <v>1583.649907076573</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T20" t="n">
-        <v>1583.649907076573</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="U20" t="n">
-        <v>1583.649907076573</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="V20" t="n">
-        <v>1583.649907076573</v>
+        <v>980.3391580376302</v>
       </c>
       <c r="W20" t="n">
-        <v>1583.649907076573</v>
+        <v>980.3391580376302</v>
       </c>
       <c r="X20" t="n">
-        <v>1583.649907076573</v>
+        <v>980.3391580376302</v>
       </c>
       <c r="Y20" t="n">
-        <v>1583.649907076573</v>
+        <v>980.3391580376302</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>355.8467647021305</v>
+        <v>776.7454794694102</v>
       </c>
       <c r="C21" t="n">
-        <v>181.3937354210034</v>
+        <v>776.7454794694102</v>
       </c>
       <c r="D21" t="n">
-        <v>32.45932575975218</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E21" t="n">
-        <v>32.45932575975218</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F21" t="n">
-        <v>32.45932575975218</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G21" t="n">
-        <v>32.45932575975218</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H21" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I21" t="n">
         <v>32.45932575975218</v>
@@ -5853,28 +5855,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R21" t="n">
-        <v>1563.582420117758</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S21" t="n">
-        <v>1396.080185075924</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T21" t="n">
-        <v>1195.177176181417</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U21" t="n">
-        <v>966.9745087188951</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="V21" t="n">
-        <v>731.8224004871524</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="W21" t="n">
-        <v>731.8224004871524</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="X21" t="n">
-        <v>731.8224004871524</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="Y21" t="n">
-        <v>524.0621017221986</v>
+        <v>944.9608164894781</v>
       </c>
     </row>
     <row r="22">
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>32.45932575975218</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="C22" t="n">
-        <v>32.45932575975218</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="D22" t="n">
-        <v>32.45932575975218</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="E22" t="n">
-        <v>32.45932575975218</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="F22" t="n">
-        <v>32.45932575975218</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="G22" t="n">
-        <v>32.45932575975218</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="H22" t="n">
-        <v>32.45932575975218</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="I22" t="n">
-        <v>32.45932575975218</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="J22" t="n">
         <v>32.45932575975218</v>
@@ -5944,16 +5946,16 @@
         <v>132.1392625228377</v>
       </c>
       <c r="V22" t="n">
-        <v>32.45932575975218</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="W22" t="n">
-        <v>32.45932575975218</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="X22" t="n">
-        <v>32.45932575975218</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="Y22" t="n">
-        <v>32.45932575975218</v>
+        <v>132.1392625228377</v>
       </c>
     </row>
     <row r="23">
@@ -5963,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>32.45932575975218</v>
+        <v>1188.947668900687</v>
       </c>
       <c r="C23" t="n">
-        <v>32.45932575975218</v>
+        <v>1188.947668900687</v>
       </c>
       <c r="D23" t="n">
-        <v>32.45932575975218</v>
+        <v>1188.947668900687</v>
       </c>
       <c r="E23" t="n">
-        <v>32.45932575975218</v>
+        <v>1188.947668900687</v>
       </c>
       <c r="F23" t="n">
-        <v>32.45932575975218</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="G23" t="n">
-        <v>32.45932575975218</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H23" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I23" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J23" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K23" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L23" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M23" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N23" t="n">
         <v>1148.836227140252</v>
@@ -6011,28 +6013,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R23" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.716324170801</v>
       </c>
       <c r="S23" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.716324170801</v>
       </c>
       <c r="T23" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.716324170801</v>
       </c>
       <c r="U23" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.716324170801</v>
       </c>
       <c r="V23" t="n">
-        <v>1291.903400644038</v>
+        <v>1541.716324170801</v>
       </c>
       <c r="W23" t="n">
-        <v>939.1347453739243</v>
+        <v>1188.947668900687</v>
       </c>
       <c r="X23" t="n">
-        <v>809.1984977996857</v>
+        <v>1188.947668900687</v>
       </c>
       <c r="Y23" t="n">
-        <v>419.059165823874</v>
+        <v>1188.947668900687</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>206.9123550408792</v>
+        <v>709.8087082577356</v>
       </c>
       <c r="C24" t="n">
-        <v>32.45932575975218</v>
+        <v>535.3556789766086</v>
       </c>
       <c r="D24" t="n">
-        <v>32.45932575975218</v>
+        <v>386.4212693153573</v>
       </c>
       <c r="E24" t="n">
-        <v>32.45932575975218</v>
+        <v>386.4212693153573</v>
       </c>
       <c r="F24" t="n">
-        <v>32.45932575975218</v>
+        <v>239.8867113422423</v>
       </c>
       <c r="G24" t="n">
-        <v>32.45932575975218</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H24" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I24" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J24" t="n">
         <v>61.20822116384403</v>
@@ -6078,7 +6080,7 @@
         <v>758.3581127497702</v>
       </c>
       <c r="N24" t="n">
-        <v>1057.709031609043</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O24" t="n">
         <v>1380.722538783602</v>
@@ -6090,28 +6092,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R24" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S24" t="n">
-        <v>1622.966287987609</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T24" t="n">
-        <v>1422.063279093102</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U24" t="n">
-        <v>1193.860611630581</v>
+        <v>944.9608164894784</v>
       </c>
       <c r="V24" t="n">
-        <v>958.708503398838</v>
+        <v>709.8087082577356</v>
       </c>
       <c r="W24" t="n">
-        <v>704.4711466706365</v>
+        <v>709.8087082577356</v>
       </c>
       <c r="X24" t="n">
-        <v>496.6196464651036</v>
+        <v>709.8087082577356</v>
       </c>
       <c r="Y24" t="n">
-        <v>288.8593477001497</v>
+        <v>709.8087082577356</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>133.2570507049327</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="C25" t="n">
-        <v>133.2570507049327</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="D25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="E25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="F25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="G25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="H25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="I25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="J25" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="K25" t="n">
-        <v>40.81344334191284</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L25" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M25" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N25" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O25" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P25" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q25" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R25" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S25" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T25" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U25" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V25" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W25" t="n">
-        <v>361.2466016029501</v>
+        <v>1333.549117950649</v>
       </c>
       <c r="X25" t="n">
-        <v>133.2570507049327</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="Y25" t="n">
-        <v>133.2570507049327</v>
+        <v>1294.179012144412</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>32.45932575975218</v>
+        <v>227.6146661482722</v>
       </c>
       <c r="C26" t="n">
         <v>32.45932575975218</v>
@@ -6248,28 +6250,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R26" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S26" t="n">
-        <v>1508.970645214177</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T26" t="n">
-        <v>1343.593509702263</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="U26" t="n">
-        <v>1089.756626634517</v>
+        <v>948.8168854676546</v>
       </c>
       <c r="V26" t="n">
-        <v>758.6937392909463</v>
+        <v>617.753998124084</v>
       </c>
       <c r="W26" t="n">
-        <v>405.9250840208321</v>
+        <v>617.753998124084</v>
       </c>
       <c r="X26" t="n">
-        <v>32.45932575975218</v>
+        <v>617.753998124084</v>
       </c>
       <c r="Y26" t="n">
-        <v>32.45932575975218</v>
+        <v>227.6146661482722</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>957.7415918977861</v>
+        <v>389.1968927644969</v>
       </c>
       <c r="C27" t="n">
-        <v>783.2885626166591</v>
+        <v>389.1968927644969</v>
       </c>
       <c r="D27" t="n">
-        <v>634.3541529554078</v>
+        <v>389.1968927644969</v>
       </c>
       <c r="E27" t="n">
-        <v>475.1166979499523</v>
+        <v>389.1968927644969</v>
       </c>
       <c r="F27" t="n">
-        <v>328.5821399768373</v>
+        <v>242.6623347913819</v>
       </c>
       <c r="G27" t="n">
-        <v>190.1697667360075</v>
+        <v>104.2499615505521</v>
       </c>
       <c r="H27" t="n">
-        <v>79.87620874347081</v>
+        <v>104.2499615505521</v>
       </c>
       <c r="I27" t="n">
         <v>32.45932575975218</v>
@@ -6309,13 +6311,13 @@
         <v>236.9655055809357</v>
       </c>
       <c r="L27" t="n">
-        <v>534.6972605625989</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="M27" t="n">
-        <v>934.1153971668618</v>
+        <v>546.7891136313474</v>
       </c>
       <c r="N27" t="n">
-        <v>1271.486777082839</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O27" t="n">
         <v>1271.486777082839</v>
@@ -6327,28 +6329,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R27" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S27" t="n">
-        <v>1541.568727888341</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T27" t="n">
-        <v>1541.568727888341</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="U27" t="n">
-        <v>1541.568727888341</v>
+        <v>1227.261385483253</v>
       </c>
       <c r="V27" t="n">
-        <v>1541.568727888341</v>
+        <v>1227.261385483253</v>
       </c>
       <c r="W27" t="n">
-        <v>1541.568727888341</v>
+        <v>973.0240287550516</v>
       </c>
       <c r="X27" t="n">
-        <v>1333.717227682808</v>
+        <v>765.1725285495188</v>
       </c>
       <c r="Y27" t="n">
-        <v>1125.956928917854</v>
+        <v>557.4122297845649</v>
       </c>
     </row>
     <row r="28">
@@ -6412,7 +6414,7 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T28" t="n">
-        <v>287.1438139656391</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U28" t="n">
         <v>287.1438139656391</v>
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.5925424806035</v>
+        <v>846.2271159476757</v>
       </c>
       <c r="C29" t="n">
-        <v>137.6300255401918</v>
+        <v>477.2645990072639</v>
       </c>
       <c r="D29" t="n">
-        <v>137.6300255401918</v>
+        <v>118.9989004005134</v>
       </c>
       <c r="E29" t="n">
-        <v>137.6300255401918</v>
+        <v>118.9989004005134</v>
       </c>
       <c r="F29" t="n">
-        <v>137.6300255401918</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G29" t="n">
-        <v>137.6300255401918</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H29" t="n">
         <v>32.45932575975218</v>
@@ -6467,7 +6469,7 @@
         <v>247.3580469011318</v>
       </c>
       <c r="L29" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M29" t="n">
         <v>838.8947028941454</v>
@@ -6500,13 +6502,13 @@
         <v>1622.966287987609</v>
       </c>
       <c r="W29" t="n">
-        <v>1270.197632717495</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X29" t="n">
-        <v>896.7318744564152</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.5925424806035</v>
+        <v>1232.826956011797</v>
       </c>
     </row>
     <row r="30">
@@ -6546,7 +6548,7 @@
         <v>61.20822116384403</v>
       </c>
       <c r="L30" t="n">
-        <v>147.3709770270845</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M30" t="n">
         <v>546.7891136313474</v>
@@ -6564,28 +6566,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R30" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S30" t="n">
-        <v>1541.568727888341</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T30" t="n">
-        <v>1541.568727888341</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U30" t="n">
-        <v>1541.568727888341</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="V30" t="n">
-        <v>1541.568727888341</v>
+        <v>1019.408935819526</v>
       </c>
       <c r="W30" t="n">
-        <v>1541.568727888341</v>
+        <v>1019.408935819526</v>
       </c>
       <c r="X30" t="n">
-        <v>1365.635721271956</v>
+        <v>1019.408935819526</v>
       </c>
       <c r="Y30" t="n">
-        <v>1157.875422507002</v>
+        <v>1019.408935819526</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1444.295651556747</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C31" t="n">
-        <v>1444.295651556747</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D31" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E31" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F31" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G31" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H31" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I31" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J31" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K31" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L31" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M31" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N31" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O31" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P31" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q31" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R31" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S31" t="n">
-        <v>1444.295651556747</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="T31" t="n">
-        <v>1444.295651556747</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="U31" t="n">
-        <v>1444.295651556747</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="V31" t="n">
-        <v>1444.295651556747</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W31" t="n">
-        <v>1444.295651556747</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X31" t="n">
-        <v>1444.295651556747</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y31" t="n">
-        <v>1444.295651556747</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="32">
@@ -6674,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>32.45932575975218</v>
+        <v>1135.504886953097</v>
       </c>
       <c r="C32" t="n">
-        <v>32.45932575975218</v>
+        <v>1135.504886953097</v>
       </c>
       <c r="D32" t="n">
-        <v>32.45932575975218</v>
+        <v>1135.504886953097</v>
       </c>
       <c r="E32" t="n">
-        <v>32.45932575975218</v>
+        <v>749.7166343548531</v>
       </c>
       <c r="F32" t="n">
-        <v>32.45932575975218</v>
+        <v>339.8766626408104</v>
       </c>
       <c r="G32" t="n">
-        <v>32.45932575975218</v>
+        <v>339.8766626408104</v>
       </c>
       <c r="H32" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I32" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J32" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K32" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L32" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M32" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N32" t="n">
         <v>1148.836227140252</v>
@@ -6722,28 +6724,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R32" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S32" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="T32" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="U32" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="V32" t="n">
-        <v>1535.43291133088</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="W32" t="n">
-        <v>1182.664256060766</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="X32" t="n">
-        <v>809.1984977996857</v>
+        <v>1135.504886953097</v>
       </c>
       <c r="Y32" t="n">
-        <v>419.059165823874</v>
+        <v>1135.504886953097</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>790.2393568559519</v>
+        <v>329.1174114232695</v>
       </c>
       <c r="C33" t="n">
-        <v>615.7863275748249</v>
+        <v>329.1174114232695</v>
       </c>
       <c r="D33" t="n">
-        <v>466.8519179135736</v>
+        <v>329.1174114232695</v>
       </c>
       <c r="E33" t="n">
-        <v>307.6144629081181</v>
+        <v>329.1174114232695</v>
       </c>
       <c r="F33" t="n">
-        <v>161.0799049350031</v>
+        <v>182.5828534501544</v>
       </c>
       <c r="G33" t="n">
         <v>142.7528837522889</v>
@@ -6777,52 +6779,52 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J33" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K33" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="L33" t="n">
-        <v>147.3709770270845</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M33" t="n">
-        <v>546.7891136313474</v>
+        <v>758.3581127497702</v>
       </c>
       <c r="N33" t="n">
-        <v>948.4732699082806</v>
+        <v>1160.042269026703</v>
       </c>
       <c r="O33" t="n">
-        <v>1271.486777082839</v>
+        <v>1483.055776201262</v>
       </c>
       <c r="P33" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q33" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R33" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S33" t="n">
-        <v>1374.066492846507</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T33" t="n">
-        <v>1374.066492846507</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U33" t="n">
-        <v>1374.066492846507</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="V33" t="n">
-        <v>1374.066492846507</v>
+        <v>791.2062683570039</v>
       </c>
       <c r="W33" t="n">
-        <v>1374.066492846507</v>
+        <v>536.9689116288023</v>
       </c>
       <c r="X33" t="n">
-        <v>1166.214992640974</v>
+        <v>329.1174114232695</v>
       </c>
       <c r="Y33" t="n">
-        <v>958.45469387602</v>
+        <v>329.1174114232695</v>
       </c>
     </row>
     <row r="34">
@@ -6832,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1294.179012144411</v>
+        <v>1444.295651556747</v>
       </c>
       <c r="C34" t="n">
-        <v>1294.179012144411</v>
+        <v>1444.295651556747</v>
       </c>
       <c r="D34" t="n">
         <v>1294.179012144411</v>
@@ -6892,16 +6894,16 @@
         <v>1622.966287987609</v>
       </c>
       <c r="V34" t="n">
-        <v>1368.281799781722</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W34" t="n">
-        <v>1294.179012144411</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X34" t="n">
-        <v>1294.179012144411</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y34" t="n">
-        <v>1294.179012144411</v>
+        <v>1622.966287987609</v>
       </c>
     </row>
     <row r="35">
@@ -6911,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>261.3273455363589</v>
+        <v>119.9927024164817</v>
       </c>
       <c r="C35" t="n">
-        <v>261.3273455363589</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D35" t="n">
-        <v>261.3273455363589</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E35" t="n">
-        <v>261.3273455363589</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F35" t="n">
-        <v>261.3273455363589</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G35" t="n">
-        <v>261.3273455363589</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H35" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I35" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J35" t="n">
-        <v>70.13987180521485</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K35" t="n">
-        <v>247.3580469011315</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L35" t="n">
-        <v>519.4894913528321</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M35" t="n">
-        <v>838.8947028941452</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N35" t="n">
         <v>1148.836227140252</v>
@@ -6968,19 +6970,19 @@
         <v>1622.966287987609</v>
       </c>
       <c r="U35" t="n">
-        <v>1369.129404919863</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V35" t="n">
-        <v>1038.066517576292</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W35" t="n">
-        <v>1038.066517576292</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="X35" t="n">
-        <v>1038.066517576292</v>
+        <v>896.7318744564152</v>
       </c>
       <c r="Y35" t="n">
-        <v>647.9271856004807</v>
+        <v>506.5925424806035</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>32.45932575975218</v>
+        <v>79.59571574451178</v>
       </c>
       <c r="C36" t="n">
-        <v>32.45932575975218</v>
+        <v>79.59571574451178</v>
       </c>
       <c r="D36" t="n">
-        <v>32.45932575975218</v>
+        <v>79.59571574451178</v>
       </c>
       <c r="E36" t="n">
-        <v>32.45932575975218</v>
+        <v>79.59571574451178</v>
       </c>
       <c r="F36" t="n">
-        <v>32.45932575975218</v>
+        <v>79.59571574451178</v>
       </c>
       <c r="G36" t="n">
-        <v>32.45932575975218</v>
+        <v>79.59571574451178</v>
       </c>
       <c r="H36" t="n">
-        <v>32.45932575975218</v>
+        <v>79.59571574451178</v>
       </c>
       <c r="I36" t="n">
         <v>32.45932575975218</v>
@@ -7017,49 +7019,49 @@
         <v>32.45932575975218</v>
       </c>
       <c r="K36" t="n">
-        <v>32.45932575975218</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L36" t="n">
-        <v>330.1910807414154</v>
+        <v>505.948365158507</v>
       </c>
       <c r="M36" t="n">
-        <v>729.6092173456783</v>
+        <v>546.7891136313474</v>
       </c>
       <c r="N36" t="n">
-        <v>1131.293373622612</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O36" t="n">
-        <v>1454.30688079717</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P36" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q36" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R36" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S36" t="n">
-        <v>1534.78160306728</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T36" t="n">
-        <v>1333.878594172773</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U36" t="n">
-        <v>1105.675926710251</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="V36" t="n">
-        <v>870.5238184785085</v>
+        <v>709.8087082577354</v>
       </c>
       <c r="W36" t="n">
-        <v>616.2864617503069</v>
+        <v>455.5713515295337</v>
       </c>
       <c r="X36" t="n">
-        <v>408.4349615447741</v>
+        <v>455.5713515295337</v>
       </c>
       <c r="Y36" t="n">
-        <v>200.6746627798202</v>
+        <v>247.8110527645798</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C37" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D37" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E37" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F37" t="n">
-        <v>1476.076340489699</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G37" t="n">
-        <v>1306.655462159183</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H37" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I37" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J37" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K37" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L37" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M37" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N37" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O37" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P37" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q37" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R37" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S37" t="n">
-        <v>1622.966287987609</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="T37" t="n">
-        <v>1622.966287987609</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="U37" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V37" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W37" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X37" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y37" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="38">
@@ -7148,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>565.6689871128444</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C38" t="n">
-        <v>565.6689871128444</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D38" t="n">
-        <v>207.4032885060939</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E38" t="n">
-        <v>207.4032885060939</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F38" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G38" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H38" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I38" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J38" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521497</v>
       </c>
       <c r="K38" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L38" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M38" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941453</v>
       </c>
       <c r="N38" t="n">
         <v>1148.836227140252</v>
@@ -7205,19 +7207,19 @@
         <v>1622.966287987609</v>
       </c>
       <c r="U38" t="n">
-        <v>1622.966287987609</v>
+        <v>1479.895958610329</v>
       </c>
       <c r="V38" t="n">
-        <v>1291.903400644038</v>
+        <v>1148.833071266758</v>
       </c>
       <c r="W38" t="n">
-        <v>939.1347453739243</v>
+        <v>796.0644159966438</v>
       </c>
       <c r="X38" t="n">
-        <v>565.6689871128444</v>
+        <v>422.5986577355639</v>
       </c>
       <c r="Y38" t="n">
-        <v>565.6689871128444</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>181.3937354210034</v>
+        <v>345.324728281709</v>
       </c>
       <c r="C39" t="n">
-        <v>181.3937354210034</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="D39" t="n">
-        <v>32.45932575975218</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="E39" t="n">
-        <v>32.45932575975218</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="F39" t="n">
-        <v>32.45932575975218</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="G39" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H39" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I39" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J39" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K39" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L39" t="n">
-        <v>147.3709770270845</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M39" t="n">
-        <v>546.7891136313474</v>
+        <v>729.6092173456783</v>
       </c>
       <c r="N39" t="n">
-        <v>948.4732699082806</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O39" t="n">
-        <v>1271.486777082839</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P39" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q39" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R39" t="n">
-        <v>1541.568727888341</v>
+        <v>1592.696546882801</v>
       </c>
       <c r="S39" t="n">
-        <v>1515.500675708463</v>
+        <v>1425.194311840967</v>
       </c>
       <c r="T39" t="n">
-        <v>1314.597666813956</v>
+        <v>1224.29130294646</v>
       </c>
       <c r="U39" t="n">
-        <v>1086.394999351435</v>
+        <v>996.0886354839383</v>
       </c>
       <c r="V39" t="n">
-        <v>851.2428911196919</v>
+        <v>760.9365272521957</v>
       </c>
       <c r="W39" t="n">
-        <v>597.0055343914902</v>
+        <v>760.9365272521957</v>
       </c>
       <c r="X39" t="n">
-        <v>389.1540341859574</v>
+        <v>553.0850270466628</v>
       </c>
       <c r="Y39" t="n">
-        <v>181.3937354210034</v>
+        <v>345.324728281709</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="C40" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="D40" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="E40" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="F40" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="G40" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="H40" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="I40" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="J40" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="K40" t="n">
-        <v>40.81344334191284</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L40" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M40" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N40" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O40" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q40" t="n">
-        <v>296.5701361642185</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R40" t="n">
-        <v>129.4902764300189</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S40" t="n">
-        <v>32.45932575975218</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T40" t="n">
-        <v>32.45932575975218</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U40" t="n">
-        <v>32.45932575975218</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V40" t="n">
-        <v>32.45932575975218</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W40" t="n">
-        <v>32.45932575975218</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X40" t="n">
-        <v>32.45932575975218</v>
+        <v>1394.976737089592</v>
       </c>
       <c r="Y40" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144412</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>852.1392691878377</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="C41" t="n">
-        <v>852.1392691878377</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="D41" t="n">
-        <v>852.1392691878377</v>
+        <v>1574.735921498931</v>
       </c>
       <c r="E41" t="n">
-        <v>852.1392691878377</v>
+        <v>1188.947668900687</v>
       </c>
       <c r="F41" t="n">
-        <v>442.2992974737949</v>
+        <v>779.107697186644</v>
       </c>
       <c r="G41" t="n">
-        <v>32.45932575975218</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H41" t="n">
         <v>32.45932575975218</v>
@@ -7409,16 +7411,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J41" t="n">
-        <v>70.13987180521491</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K41" t="n">
-        <v>247.3580469011317</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L41" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M41" t="n">
-        <v>838.8947028941453</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N41" t="n">
         <v>1148.836227140252</v>
@@ -7448,13 +7450,13 @@
         <v>1622.966287987609</v>
       </c>
       <c r="W41" t="n">
-        <v>1270.197632717495</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X41" t="n">
-        <v>1242.278601163649</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y41" t="n">
-        <v>852.1392691878377</v>
+        <v>1622.966287987609</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>206.9123550408792</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="C42" t="n">
-        <v>32.45932575975218</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D42" t="n">
-        <v>32.45932575975218</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E42" t="n">
-        <v>32.45932575975218</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F42" t="n">
-        <v>32.45932575975218</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G42" t="n">
-        <v>32.45932575975218</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H42" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I42" t="n">
         <v>32.45932575975218</v>
@@ -7497,43 +7499,43 @@
         <v>534.6972605625989</v>
       </c>
       <c r="M42" t="n">
-        <v>934.1153971668618</v>
+        <v>656.0248753321102</v>
       </c>
       <c r="N42" t="n">
-        <v>948.4732699082806</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O42" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P42" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q42" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R42" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S42" t="n">
-        <v>1501.383132142874</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T42" t="n">
-        <v>1300.480123248367</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="U42" t="n">
-        <v>1072.277455785845</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="V42" t="n">
-        <v>837.1253475541027</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="W42" t="n">
-        <v>582.8879908259012</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="X42" t="n">
-        <v>582.8879908259012</v>
+        <v>1365.635721271956</v>
       </c>
       <c r="Y42" t="n">
-        <v>375.1276920609472</v>
+        <v>1157.875422507002</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C43" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="D43" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="E43" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="F43" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="G43" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="H43" t="n">
-        <v>32.45932575975218</v>
+        <v>256.8779464865154</v>
       </c>
       <c r="I43" t="n">
-        <v>32.45932575975218</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="J43" t="n">
         <v>32.45932575975218</v>
@@ -7600,19 +7602,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U43" t="n">
-        <v>72.05002336285361</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V43" t="n">
-        <v>72.05002336285361</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W43" t="n">
-        <v>72.05002336285361</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X43" t="n">
-        <v>72.05002336285361</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y43" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>401.4218427001639</v>
+        <v>72.41461071113446</v>
       </c>
       <c r="C44" t="n">
-        <v>32.45932575975218</v>
+        <v>72.41461071113446</v>
       </c>
       <c r="D44" t="n">
-        <v>32.45932575975218</v>
+        <v>72.41461071113446</v>
       </c>
       <c r="E44" t="n">
-        <v>32.45932575975218</v>
+        <v>72.41461071113446</v>
       </c>
       <c r="F44" t="n">
-        <v>32.45932575975218</v>
+        <v>72.41461071113446</v>
       </c>
       <c r="G44" t="n">
         <v>32.45932575975218</v>
@@ -7646,16 +7648,16 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J44" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521491</v>
       </c>
       <c r="K44" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011317</v>
       </c>
       <c r="L44" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M44" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941453</v>
       </c>
       <c r="N44" t="n">
         <v>1148.836227140252</v>
@@ -7670,28 +7672,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R44" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S44" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T44" t="n">
-        <v>1311.402045381201</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="U44" t="n">
-        <v>1311.402045381201</v>
+        <v>1146.385485300631</v>
       </c>
       <c r="V44" t="n">
-        <v>1311.402045381201</v>
+        <v>815.3225979570603</v>
       </c>
       <c r="W44" t="n">
-        <v>958.6333901110868</v>
+        <v>462.5539426869462</v>
       </c>
       <c r="X44" t="n">
-        <v>958.6333901110868</v>
+        <v>462.5539426869462</v>
       </c>
       <c r="Y44" t="n">
-        <v>568.4940581352751</v>
+        <v>72.41461071113446</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>222.0882603251556</v>
+        <v>120.6440106800817</v>
       </c>
       <c r="C45" t="n">
-        <v>222.0882603251556</v>
+        <v>120.6440106800817</v>
       </c>
       <c r="D45" t="n">
-        <v>222.0882603251556</v>
+        <v>120.6440106800817</v>
       </c>
       <c r="E45" t="n">
-        <v>222.0882603251556</v>
+        <v>120.6440106800817</v>
       </c>
       <c r="F45" t="n">
-        <v>222.0882603251556</v>
+        <v>120.6440106800817</v>
       </c>
       <c r="G45" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H45" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I45" t="n">
         <v>32.45932575975218</v>
@@ -7728,22 +7730,22 @@
         <v>32.45932575975218</v>
       </c>
       <c r="K45" t="n">
-        <v>208.2166101768439</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L45" t="n">
-        <v>505.948365158507</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M45" t="n">
-        <v>546.7891136313474</v>
+        <v>656.0248753321102</v>
       </c>
       <c r="N45" t="n">
-        <v>948.4732699082806</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O45" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P45" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q45" t="n">
         <v>1622.966287987609</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.1392625228377</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="C46" t="n">
-        <v>132.1392625228377</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="D46" t="n">
-        <v>132.1392625228377</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="E46" t="n">
-        <v>132.1392625228377</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="F46" t="n">
-        <v>132.1392625228377</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="G46" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="H46" t="n">
-        <v>32.45932575975218</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="I46" t="n">
         <v>32.45932575975218</v>
@@ -7834,22 +7836,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T46" t="n">
-        <v>132.1392625228377</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U46" t="n">
-        <v>132.1392625228377</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="V46" t="n">
-        <v>132.1392625228377</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="W46" t="n">
-        <v>132.1392625228377</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="X46" t="n">
-        <v>132.1392625228377</v>
+        <v>72.05002336285361</v>
       </c>
       <c r="Y46" t="n">
-        <v>132.1392625228377</v>
+        <v>72.05002336285361</v>
       </c>
     </row>
   </sheetData>
@@ -7982,7 +7984,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8058,13 +8060,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>173.111405903722</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
@@ -8073,7 +8075,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8298,22 +8300,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>168.5314335381781</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,16 +8543,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P9" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K12" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8778,16 +8780,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>351.7205150479951</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>67.58604940343854</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>282.5396565622962</v>
       </c>
       <c r="Q12" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9006,16 +9008,16 @@
         <v>97.05174705344737</v>
       </c>
       <c r="K15" t="n">
-        <v>86.93262649026376</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L15" t="n">
-        <v>186.1735738748421</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>455.0874215304797</v>
+        <v>270.4206501018624</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9243,19 +9245,19 @@
         <v>97.05174705344737</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>186.1735738748421</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>419.1643094528387</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O18" t="n">
-        <v>67.58604940343855</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>99.73813450275543</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>86.93262649026376</v>
+        <v>86.93262649026377</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9726,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>351.7205150479949</v>
+        <v>351.7205150479951</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9957,16 +9959,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>70.10119885733474</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>375.205539958231</v>
       </c>
       <c r="N27" t="n">
-        <v>390.1250211658772</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O27" t="n">
-        <v>67.58604940343855</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10194,10 +10196,10 @@
         <v>86.93262649026376</v>
       </c>
       <c r="L30" t="n">
-        <v>157.1342855878806</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>251.9990040344213</v>
       </c>
       <c r="N30" t="n">
         <v>455.0874215304797</v>
@@ -10425,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>86.93262649026376</v>
       </c>
       <c r="L33" t="n">
-        <v>186.1735738748421</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10443,10 +10445,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>215.0958621574522</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,13 +10667,13 @@
         <v>97.05174705344737</v>
       </c>
       <c r="K36" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>103.505681799068</v>
       </c>
       <c r="N36" t="n">
         <v>455.0874215304797</v>
@@ -10680,10 +10682,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>244.1351504444137</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K39" t="n">
         <v>86.93262649026376</v>
       </c>
       <c r="L39" t="n">
-        <v>157.1342855878806</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10917,10 +10919,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>244.1351504444139</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11145,10 +11147,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>184.8055467452003</v>
       </c>
       <c r="N42" t="n">
-        <v>63.84875129258624</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11315,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11376,13 +11378,13 @@
         <v>97.05174705344737</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>103.505681799068</v>
+        <v>391.3774455544766</v>
       </c>
       <c r="N45" t="n">
         <v>455.0874215304797</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23264,19 +23266,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.7135041305339</v>
+        <v>364.2713817390454</v>
       </c>
       <c r="H11" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,25 +23305,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>252.3860301008907</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23334,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>51.13222266900995</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23382,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23403,7 +23405,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>203.9639668888253</v>
       </c>
     </row>
     <row r="13">
@@ -23437,7 +23439,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>198.0222341697041</v>
+        <v>123.3497577082892</v>
       </c>
       <c r="T13" t="n">
         <v>226.8162656893113</v>
@@ -23492,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H14" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>187.7594695105699</v>
+        <v>108.3085039521371</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23552,16 +23554,16 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V14" t="n">
-        <v>237.7705109919893</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23571,16 +23573,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>128.0106975665961</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -23622,25 +23624,25 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S15" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>202.7107073159006</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23701,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>123.3497577082893</v>
+        <v>123.3497577082892</v>
       </c>
       <c r="T16" t="n">
         <v>226.8162656893113</v>
@@ -23732,7 +23734,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23747,7 +23749,7 @@
         <v>414.7135041305339</v>
       </c>
       <c r="H17" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23777,22 +23779,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>70.41439893299193</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>55.73243711954106</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23808,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>150.2198559240991</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,25 +23858,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>116.8429368463966</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -23938,13 +23940,13 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S19" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>226.8162656893113</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>180.2156082447829</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23953,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>186.5148647619667</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>395.416369009805</v>
       </c>
       <c r="G20" t="n">
         <v>8.97193213363164</v>
       </c>
       <c r="H20" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,10 +24016,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>73.93246924377132</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>220.5164804230398</v>
@@ -24026,7 +24028,7 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24048,25 +24050,25 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>38.07696096903312</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>21.7935553071226</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24105,7 +24107,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -24114,7 +24116,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24145,10 +24147,10 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I22" t="n">
-        <v>147.5019580580808</v>
+        <v>123.4912971240408</v>
       </c>
       <c r="J22" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24184,7 +24186,7 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V22" t="n">
-        <v>153.4545059283734</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24215,13 +24217,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G23" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631583</v>
       </c>
       <c r="H23" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>187.7594695105699</v>
@@ -24251,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>112.8556863456974</v>
+        <v>32.41822216705724</v>
       </c>
       <c r="S23" t="n">
         <v>195.5929138346465</v>
@@ -24263,16 +24265,16 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0942155799729</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24282,28 +24284,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>85.40566091718952</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0282495084215</v>
+        <v>119.4077830015056</v>
       </c>
       <c r="H24" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24345,13 +24347,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24367,7 +24369,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>48.82572532248361</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24424,10 +24426,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>186.7332506408625</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24443,7 +24445,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>172.0691047863727</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24488,13 +24490,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S26" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>56.79311626624468</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24503,13 +24505,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24522,13 +24524,13 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -24537,10 +24539,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I27" t="n">
-        <v>31.5993086532566</v>
+        <v>7.469293374246107</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,22 +24569,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S27" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24652,10 +24654,10 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T28" t="n">
-        <v>153.4545059283734</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3046124576955</v>
+        <v>212.9428526967576</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24677,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>321.2018668473578</v>
       </c>
       <c r="G29" t="n">
         <v>414.7135041305339</v>
       </c>
       <c r="H29" t="n">
-        <v>229.3213229330854</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I29" t="n">
         <v>187.7594695105699</v>
@@ -24740,10 +24742,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24756,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>137.0818218206019</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -24804,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S30" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>225.9206407878966</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>31.59930865325657</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24841,7 +24843,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24886,7 +24888,7 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S31" t="n">
-        <v>42.52646880529997</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>226.8162656893113</v>
@@ -24895,7 +24897,7 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>146.0486391109155</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24923,19 +24925,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G32" t="n">
         <v>414.7135041305339</v>
       </c>
       <c r="H32" t="n">
-        <v>333.4403157157206</v>
+        <v>216.8566217140429</v>
       </c>
       <c r="I32" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>195.5929138346465</v>
@@ -24974,16 +24976,16 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0942155799728</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24993,22 +24995,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>118.8844985375344</v>
+        <v>97.59657950753459</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -25041,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>2.948050115383893</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25132,10 +25134,10 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>213.1612385756534</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25154,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>278.6148488808453</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25169,10 +25171,10 @@
         <v>414.7135041305339</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6204456474499</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25208,16 +25210,16 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25251,7 +25253,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I36" t="n">
-        <v>78.54202280713804</v>
+        <v>31.87699672222604</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,10 +25280,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>78.52437462028948</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25296,7 +25298,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25321,13 +25323,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H37" t="n">
-        <v>147.525532489171</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I37" t="n">
         <v>147.5019580580808</v>
@@ -25360,13 +25362,13 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S37" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>226.8162656893113</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3046124576955</v>
+        <v>180.215608244783</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25394,13 +25396,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>233.6815226228331</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>414.7135041305339</v>
@@ -25445,7 +25447,7 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2985142370684</v>
+        <v>109.6588881535606</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25457,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25470,10 +25472,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25482,7 +25484,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>109.1906224126114</v>
@@ -25515,10 +25517,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>50.61654080451518</v>
       </c>
       <c r="S39" t="n">
-        <v>140.0198410333366</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25530,7 +25532,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25591,13 +25593,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S40" t="n">
-        <v>123.3497577082893</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T40" t="n">
         <v>226.8162656893113</v>
@@ -25612,10 +25614,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>118.7949056563663</v>
       </c>
     </row>
     <row r="41">
@@ -25631,10 +25633,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>306.9349787968916</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>1.134473744809156</v>
@@ -25643,7 +25645,7 @@
         <v>8.97193213363164</v>
       </c>
       <c r="H41" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>187.7594695105699</v>
@@ -25688,13 +25690,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>342.0912594401619</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25710,22 +25712,22 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,25 +25754,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>45.45988840512781</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>31.59930865325657</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25801,13 +25803,13 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H43" t="n">
-        <v>159.8772180037952</v>
+        <v>56.55224943852487</v>
       </c>
       <c r="I43" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25840,7 +25842,7 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25852,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>179.3898627250244</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25862,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>217.3323483827205</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25877,7 +25879,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.7135041305339</v>
+        <v>375.1577720286655</v>
       </c>
       <c r="H44" t="n">
         <v>333.4403157157206</v>
@@ -25910,19 +25912,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T44" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25941,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>100.4298071486232</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -25956,13 +25958,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0282495084215</v>
+        <v>49.72541143729524</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26035,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>69.04353215175577</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H46" t="n">
         <v>159.8772180037952</v>
       </c>
       <c r="I46" t="n">
-        <v>147.5019580580808</v>
+        <v>108.3071674310104</v>
       </c>
       <c r="J46" t="n">
         <v>74.67247646141476</v>
@@ -26074,10 +26076,10 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>493478.4817455925</v>
+        <v>493478.4817455924</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>493478.4817455925</v>
+        <v>493478.4817455924</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>493478.4817455922</v>
+        <v>493478.4817455923</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>493478.4817455923</v>
+        <v>493478.4817455924</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>493478.4817455921</v>
+        <v>493478.481745592</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>493478.4817455925</v>
+        <v>493478.4817455922</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>493478.4817455922</v>
+        <v>493478.4817455924</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>493478.4817455925</v>
+        <v>493478.4817455923</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>493478.4817455924</v>
+        <v>493478.4817455922</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>493478.4817455922</v>
+        <v>493478.4817455925</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>493478.4817455923</v>
+        <v>493478.4817455922</v>
       </c>
     </row>
   </sheetData>
@@ -26311,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="E2" t="n">
-        <v>288399.0110372189</v>
+        <v>288399.0110372187</v>
       </c>
       <c r="F2" t="n">
         <v>288399.0110372189</v>
@@ -26332,28 +26334,28 @@
         <v>288399.011037219</v>
       </c>
       <c r="I2" t="n">
+        <v>288399.0110372189</v>
+      </c>
+      <c r="J2" t="n">
+        <v>288399.0110372187</v>
+      </c>
+      <c r="K2" t="n">
         <v>288399.011037219</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
+        <v>288399.0110372189</v>
+      </c>
+      <c r="M2" t="n">
         <v>288399.011037219</v>
-      </c>
-      <c r="K2" t="n">
-        <v>288399.0110372191</v>
-      </c>
-      <c r="L2" t="n">
-        <v>288399.011037219</v>
-      </c>
-      <c r="M2" t="n">
-        <v>288399.0110372188</v>
       </c>
       <c r="N2" t="n">
         <v>288399.011037219</v>
       </c>
       <c r="O2" t="n">
+        <v>288399.0110372189</v>
+      </c>
+      <c r="P2" t="n">
         <v>288399.011037219</v>
-      </c>
-      <c r="P2" t="n">
-        <v>288399.0110372191</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910621</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>41050.69786244792</v>
+        <v>41050.69786244791</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,22 +26420,22 @@
         <v>312595.3744187171</v>
       </c>
       <c r="C4" t="n">
-        <v>312595.3744187172</v>
+        <v>312595.3744187171</v>
       </c>
       <c r="D4" t="n">
-        <v>312595.3744187172</v>
+        <v>312595.3744187171</v>
       </c>
       <c r="E4" t="n">
         <v>34482.31175973668</v>
       </c>
       <c r="F4" t="n">
+        <v>34482.31175973668</v>
+      </c>
+      <c r="G4" t="n">
+        <v>34482.31175973668</v>
+      </c>
+      <c r="H4" t="n">
         <v>34482.31175973667</v>
-      </c>
-      <c r="G4" t="n">
-        <v>34482.31175973667</v>
-      </c>
-      <c r="H4" t="n">
-        <v>34482.31175973668</v>
       </c>
       <c r="I4" t="n">
         <v>34482.31175973668</v>
@@ -26442,19 +26444,19 @@
         <v>34482.31175973668</v>
       </c>
       <c r="K4" t="n">
-        <v>34482.31175973667</v>
+        <v>34482.31175973668</v>
       </c>
       <c r="L4" t="n">
-        <v>34482.31175973667</v>
+        <v>34482.31175973668</v>
       </c>
       <c r="M4" t="n">
-        <v>34482.31175973667</v>
+        <v>34482.31175973668</v>
       </c>
       <c r="N4" t="n">
-        <v>34482.31175973667</v>
+        <v>34482.31175973668</v>
       </c>
       <c r="O4" t="n">
-        <v>34482.31175973667</v>
+        <v>34482.31175973668</v>
       </c>
       <c r="P4" t="n">
         <v>34482.31175973668</v>
@@ -26476,19 +26478,19 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="F5" t="n">
         <v>27864.35291375756</v>
       </c>
       <c r="G5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="H5" t="n">
         <v>27864.35291375756</v>
       </c>
       <c r="I5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="J5" t="n">
         <v>27864.35291375756</v>
@@ -26503,7 +26505,7 @@
         <v>27864.35291375756</v>
       </c>
       <c r="N5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="O5" t="n">
         <v>27864.35291375756</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>112557.1199443646</v>
+        <v>112557.1199443649</v>
       </c>
       <c r="C6" t="n">
-        <v>193326.5514759123</v>
+        <v>193326.5514759126</v>
       </c>
       <c r="D6" t="n">
-        <v>193326.5514759123</v>
+        <v>193326.5514759126</v>
       </c>
       <c r="E6" t="n">
-        <v>59112.17623847787</v>
+        <v>59112.17623847774</v>
       </c>
       <c r="F6" t="n">
+        <v>226052.3463637246</v>
+      </c>
+      <c r="G6" t="n">
         <v>226052.3463637247</v>
       </c>
-      <c r="G6" t="n">
-        <v>226052.3463637246</v>
-      </c>
       <c r="H6" t="n">
+        <v>226052.3463637248</v>
+      </c>
+      <c r="I6" t="n">
         <v>226052.3463637247</v>
       </c>
-      <c r="I6" t="n">
-        <v>226052.3463637248</v>
-      </c>
       <c r="J6" t="n">
-        <v>162992.4037646186</v>
+        <v>162992.4037646183</v>
       </c>
       <c r="K6" t="n">
         <v>226052.3463637248</v>
       </c>
       <c r="L6" t="n">
-        <v>226052.3463637247</v>
+        <v>226052.3463637246</v>
       </c>
       <c r="M6" t="n">
-        <v>185001.6485012766</v>
+        <v>185001.6485012768</v>
       </c>
       <c r="N6" t="n">
         <v>226052.3463637247</v>
       </c>
       <c r="O6" t="n">
-        <v>226052.3463637248</v>
+        <v>226052.3463637247</v>
       </c>
       <c r="P6" t="n">
         <v>226052.3463637248</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27379,16 +27381,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>209.8933976134044</v>
+        <v>321.7991463042253</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27400,7 +27402,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27424,19 +27426,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,16 +27457,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27473,13 +27475,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,25 +27505,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>126.7115709197353</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>52.12524442645602</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27585,7 +27587,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -27594,7 +27596,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,19 +27627,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>191.9749582998768</v>
+        <v>214.9666412263055</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27667,10 +27669,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27682,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -27692,22 +27694,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -27716,7 +27718,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>80.23261035508227</v>
       </c>
     </row>
     <row r="7">
@@ -27792,10 +27794,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J7" t="n">
-        <v>68.60374760888197</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27813,10 +27815,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27862,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>301.251446211517</v>
+        <v>364.8357591674553</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27895,19 +27897,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27938,7 +27940,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -27947,7 +27949,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -27983,22 +27985,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>94.3633958196009</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>61.52742449360861</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28050,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28074,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>92.52268780366913</v>
+        <v>95.24412853877561</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H11" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I11" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J11" t="n">
-        <v>50.01044697629219</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K11" t="n">
-        <v>74.95269614645902</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L11" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M11" t="n">
-        <v>103.4642265438473</v>
+        <v>103.4642265438474</v>
       </c>
       <c r="N11" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O11" t="n">
-        <v>99.27919642971766</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P11" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q11" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R11" t="n">
-        <v>37.01343159545223</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S11" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T11" t="n">
-        <v>2.57936914109155</v>
+        <v>2.579369141091551</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,43 +31831,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3152676547891928</v>
+        <v>0.3152676547891929</v>
       </c>
       <c r="H12" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I12" t="n">
-        <v>10.85461004427703</v>
+        <v>10.85461004427704</v>
       </c>
       <c r="J12" t="n">
-        <v>29.78587961321931</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K12" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L12" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M12" t="n">
-        <v>79.88163340864766</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N12" t="n">
-        <v>81.99586254975591</v>
+        <v>81.99586254975593</v>
       </c>
       <c r="O12" t="n">
-        <v>75.01019504100589</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P12" t="n">
-        <v>60.20229453601701</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q12" t="n">
-        <v>40.24363958326609</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R12" t="n">
-        <v>19.57424965436761</v>
+        <v>19.57424965436762</v>
       </c>
       <c r="S12" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T12" t="n">
         <v>1.270749889259948</v>
@@ -31908,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483455</v>
       </c>
       <c r="H13" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I13" t="n">
-        <v>7.948516869177517</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J13" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K13" t="n">
-        <v>30.70799443412594</v>
+        <v>30.70799443412595</v>
       </c>
       <c r="L13" t="n">
         <v>39.29566048323129</v>
@@ -31932,7 +31934,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O13" t="n">
-        <v>37.35899041172069</v>
+        <v>37.3589904117207</v>
       </c>
       <c r="P13" t="n">
         <v>31.96707026225442</v>
@@ -31941,16 +31943,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R13" t="n">
-        <v>11.88433024031196</v>
+        <v>11.88433024031197</v>
       </c>
       <c r="S13" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T13" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01441689879536431</v>
+        <v>0.01441689879536432</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H14" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I14" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J14" t="n">
-        <v>50.01044697629219</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K14" t="n">
-        <v>74.95269614645902</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L14" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M14" t="n">
-        <v>103.4642265438473</v>
+        <v>103.4642265438474</v>
       </c>
       <c r="N14" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O14" t="n">
-        <v>99.27919642971766</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P14" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q14" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R14" t="n">
-        <v>37.01343159545223</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S14" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T14" t="n">
-        <v>2.57936914109155</v>
+        <v>2.579369141091551</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,43 +32068,43 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3152676547891928</v>
+        <v>0.3152676547891929</v>
       </c>
       <c r="H15" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I15" t="n">
-        <v>10.85461004427703</v>
+        <v>10.85461004427704</v>
       </c>
       <c r="J15" t="n">
-        <v>29.78587961321931</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K15" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L15" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M15" t="n">
-        <v>79.88163340864766</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N15" t="n">
-        <v>81.99586254975591</v>
+        <v>81.99586254975593</v>
       </c>
       <c r="O15" t="n">
-        <v>75.01019504100589</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P15" t="n">
-        <v>60.20229453601701</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q15" t="n">
-        <v>40.24363958326609</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R15" t="n">
-        <v>19.57424965436761</v>
+        <v>19.57424965436762</v>
       </c>
       <c r="S15" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T15" t="n">
         <v>1.270749889259948</v>
@@ -32145,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483455</v>
       </c>
       <c r="H16" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I16" t="n">
-        <v>7.948516869177517</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J16" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K16" t="n">
-        <v>30.70799443412594</v>
+        <v>30.70799443412595</v>
       </c>
       <c r="L16" t="n">
         <v>39.29566048323129</v>
@@ -32169,7 +32171,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O16" t="n">
-        <v>37.35899041172069</v>
+        <v>37.3589904117207</v>
       </c>
       <c r="P16" t="n">
         <v>31.96707026225442</v>
@@ -32178,16 +32180,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R16" t="n">
-        <v>11.88433024031196</v>
+        <v>11.88433024031197</v>
       </c>
       <c r="S16" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T16" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01441689879536431</v>
+        <v>0.01441689879536432</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H17" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I17" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J17" t="n">
-        <v>50.01044697629219</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K17" t="n">
-        <v>74.95269614645902</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L17" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M17" t="n">
-        <v>103.4642265438473</v>
+        <v>103.4642265438474</v>
       </c>
       <c r="N17" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O17" t="n">
-        <v>99.27919642971766</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P17" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q17" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R17" t="n">
-        <v>37.01343159545223</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S17" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T17" t="n">
-        <v>2.57936914109155</v>
+        <v>2.579369141091551</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,43 +32305,43 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3152676547891928</v>
+        <v>0.3152676547891929</v>
       </c>
       <c r="H18" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I18" t="n">
-        <v>10.85461004427703</v>
+        <v>10.85461004427704</v>
       </c>
       <c r="J18" t="n">
-        <v>29.78587961321931</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K18" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L18" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M18" t="n">
-        <v>79.88163340864766</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N18" t="n">
-        <v>81.99586254975591</v>
+        <v>81.99586254975593</v>
       </c>
       <c r="O18" t="n">
-        <v>75.01019504100589</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P18" t="n">
-        <v>60.20229453601701</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q18" t="n">
-        <v>40.24363958326609</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R18" t="n">
-        <v>19.57424965436761</v>
+        <v>19.57424965436762</v>
       </c>
       <c r="S18" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T18" t="n">
         <v>1.270749889259948</v>
@@ -32382,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483455</v>
       </c>
       <c r="H19" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I19" t="n">
-        <v>7.948516869177517</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J19" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K19" t="n">
-        <v>30.70799443412594</v>
+        <v>30.70799443412595</v>
       </c>
       <c r="L19" t="n">
         <v>39.29566048323129</v>
@@ -32406,7 +32408,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O19" t="n">
-        <v>37.35899041172069</v>
+        <v>37.3589904117207</v>
       </c>
       <c r="P19" t="n">
         <v>31.96707026225442</v>
@@ -32415,16 +32417,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R19" t="n">
-        <v>11.88433024031196</v>
+        <v>11.88433024031197</v>
       </c>
       <c r="S19" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T19" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01441689879536431</v>
+        <v>0.01441689879536432</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H20" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I20" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J20" t="n">
-        <v>50.01044697629219</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K20" t="n">
-        <v>74.95269614645902</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L20" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M20" t="n">
-        <v>103.4642265438473</v>
+        <v>103.4642265438474</v>
       </c>
       <c r="N20" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O20" t="n">
-        <v>99.27919642971766</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P20" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q20" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R20" t="n">
-        <v>37.01343159545223</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S20" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T20" t="n">
-        <v>2.57936914109155</v>
+        <v>2.579369141091551</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,43 +32542,43 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3152676547891928</v>
+        <v>0.3152676547891929</v>
       </c>
       <c r="H21" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I21" t="n">
-        <v>10.85461004427703</v>
+        <v>10.85461004427704</v>
       </c>
       <c r="J21" t="n">
-        <v>29.78587961321931</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K21" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L21" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M21" t="n">
-        <v>79.88163340864766</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N21" t="n">
-        <v>81.99586254975591</v>
+        <v>81.99586254975593</v>
       </c>
       <c r="O21" t="n">
-        <v>75.01019504100589</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P21" t="n">
-        <v>60.20229453601701</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q21" t="n">
-        <v>40.24363958326609</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R21" t="n">
-        <v>19.57424965436761</v>
+        <v>19.57424965436762</v>
       </c>
       <c r="S21" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T21" t="n">
         <v>1.270749889259948</v>
@@ -32619,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483455</v>
       </c>
       <c r="H22" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I22" t="n">
-        <v>7.948516869177517</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J22" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K22" t="n">
-        <v>30.70799443412594</v>
+        <v>30.70799443412595</v>
       </c>
       <c r="L22" t="n">
         <v>39.29566048323129</v>
@@ -32643,7 +32645,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O22" t="n">
-        <v>37.35899041172069</v>
+        <v>37.3589904117207</v>
       </c>
       <c r="P22" t="n">
         <v>31.96707026225442</v>
@@ -32652,16 +32654,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R22" t="n">
-        <v>11.88433024031196</v>
+        <v>11.88433024031197</v>
       </c>
       <c r="S22" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T22" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01441689879536431</v>
+        <v>0.01441689879536432</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,22 +32700,22 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011533</v>
       </c>
       <c r="H23" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046562</v>
       </c>
       <c r="I23" t="n">
-        <v>22.71642005983599</v>
+        <v>22.71642005983598</v>
       </c>
       <c r="J23" t="n">
-        <v>50.01044697629219</v>
+        <v>50.01044697629218</v>
       </c>
       <c r="K23" t="n">
-        <v>74.95269614645902</v>
+        <v>74.952696146459</v>
       </c>
       <c r="L23" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044657</v>
       </c>
       <c r="M23" t="n">
         <v>103.4642265438473</v>
@@ -32722,25 +32724,25 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O23" t="n">
-        <v>99.27919642971766</v>
+        <v>99.27919642971764</v>
       </c>
       <c r="P23" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737666</v>
       </c>
       <c r="Q23" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134784</v>
       </c>
       <c r="R23" t="n">
         <v>37.01343159545223</v>
       </c>
       <c r="S23" t="n">
-        <v>13.4271557515988</v>
+        <v>13.42715575159879</v>
       </c>
       <c r="T23" t="n">
         <v>2.57936914109155</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809225</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32780,7 +32782,7 @@
         <v>0.3152676547891928</v>
       </c>
       <c r="H24" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885099</v>
       </c>
       <c r="I24" t="n">
         <v>10.85461004427703</v>
@@ -32789,22 +32791,22 @@
         <v>29.78587961321931</v>
       </c>
       <c r="K24" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409522</v>
       </c>
       <c r="L24" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253943</v>
       </c>
       <c r="M24" t="n">
-        <v>79.88163340864766</v>
+        <v>79.88163340864764</v>
       </c>
       <c r="N24" t="n">
-        <v>81.99586254975591</v>
+        <v>81.99586254975588</v>
       </c>
       <c r="O24" t="n">
-        <v>75.01019504100589</v>
+        <v>75.01019504100587</v>
       </c>
       <c r="P24" t="n">
-        <v>60.20229453601701</v>
+        <v>60.202294536017</v>
       </c>
       <c r="Q24" t="n">
         <v>40.24363958326609</v>
@@ -32813,7 +32815,7 @@
         <v>19.57424965436761</v>
       </c>
       <c r="S24" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422064</v>
       </c>
       <c r="T24" t="n">
         <v>1.270749889259948</v>
@@ -32856,34 +32858,34 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483453</v>
       </c>
       <c r="H25" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644381</v>
       </c>
       <c r="I25" t="n">
-        <v>7.948516869177517</v>
+        <v>7.948516869177515</v>
       </c>
       <c r="J25" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525801</v>
       </c>
       <c r="K25" t="n">
         <v>30.70799443412594</v>
       </c>
       <c r="L25" t="n">
-        <v>39.29566048323129</v>
+        <v>39.29566048323128</v>
       </c>
       <c r="M25" t="n">
-        <v>41.43176432141109</v>
+        <v>41.43176432141108</v>
       </c>
       <c r="N25" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039455</v>
       </c>
       <c r="O25" t="n">
-        <v>37.35899041172069</v>
+        <v>37.35899041172068</v>
       </c>
       <c r="P25" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225441</v>
       </c>
       <c r="Q25" t="n">
         <v>22.13234246735009</v>
@@ -32892,7 +32894,7 @@
         <v>11.88433024031196</v>
       </c>
       <c r="S25" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118889</v>
       </c>
       <c r="T25" t="n">
         <v>1.129323738970203</v>
@@ -34778,13 +34780,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>34.55702612384782</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
@@ -34793,7 +34795,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35018,22 +35020,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>34.55702612384782</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
@@ -35261,16 +35263,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P9" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K11" t="n">
-        <v>179.0082576726432</v>
+        <v>179.0082576726433</v>
       </c>
       <c r="L11" t="n">
         <v>274.8802469209098</v>
@@ -35428,7 +35430,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q11" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L12" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M12" t="n">
-        <v>403.4526632366292</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N12" t="n">
-        <v>302.3746655144177</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O12" t="n">
-        <v>326.276269873291</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>244.6906557616239</v>
+        <v>208.7675436839829</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L13" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354744</v>
       </c>
       <c r="M13" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N13" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962316</v>
       </c>
       <c r="O13" t="n">
-        <v>61.94411832576036</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P13" t="n">
-        <v>29.2456295271479</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K14" t="n">
-        <v>179.0082576726432</v>
+        <v>179.0082576726433</v>
       </c>
       <c r="L14" t="n">
         <v>274.8802469209098</v>
@@ -35665,7 +35667,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q14" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35729,13 +35731,13 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>116.0723750175074</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M15" t="n">
-        <v>403.4526632366292</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N15" t="n">
-        <v>405.7415719969023</v>
+        <v>221.074800568285</v>
       </c>
       <c r="O15" t="n">
         <v>326.276269873291</v>
@@ -35805,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L16" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354744</v>
       </c>
       <c r="M16" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N16" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962316</v>
       </c>
       <c r="O16" t="n">
-        <v>61.94411832576036</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P16" t="n">
-        <v>29.2456295271479</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35881,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K17" t="n">
-        <v>179.0082576726432</v>
+        <v>179.0082576726433</v>
       </c>
       <c r="L17" t="n">
         <v>274.8802469209098</v>
@@ -35902,7 +35904,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q17" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,19 +35965,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>300.7391464461244</v>
+        <v>116.0723750175074</v>
       </c>
       <c r="M18" t="n">
-        <v>403.4526632366292</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N18" t="n">
-        <v>369.8184599192613</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P18" t="n">
         <v>244.6906557616239</v>
@@ -36042,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L19" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354744</v>
       </c>
       <c r="M19" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N19" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962316</v>
       </c>
       <c r="O19" t="n">
-        <v>61.94411832576036</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P19" t="n">
-        <v>29.2456295271479</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K20" t="n">
-        <v>179.0082576726432</v>
+        <v>179.0082576726433</v>
       </c>
       <c r="L20" t="n">
         <v>274.8802469209098</v>
@@ -36139,7 +36141,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q20" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,13 +36202,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>177.5326105223148</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L21" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M21" t="n">
-        <v>403.4526632366292</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N21" t="n">
         <v>153.8813432790641</v>
@@ -36279,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L22" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354744</v>
       </c>
       <c r="M22" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N22" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962316</v>
       </c>
       <c r="O22" t="n">
-        <v>61.94411832576036</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P22" t="n">
-        <v>29.2456295271479</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167966</v>
       </c>
       <c r="K23" t="n">
         <v>179.0082576726432</v>
@@ -36367,7 +36369,7 @@
         <v>322.6315268094071</v>
       </c>
       <c r="N23" t="n">
-        <v>313.0722467132387</v>
+        <v>313.0722467132386</v>
       </c>
       <c r="O23" t="n">
         <v>249.9811662707763</v>
@@ -36376,7 +36378,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q23" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680303</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>29.03928828696146</v>
+        <v>29.03928828696145</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36446,7 +36448,7 @@
         <v>403.4526632366292</v>
       </c>
       <c r="N24" t="n">
-        <v>302.3746655144175</v>
+        <v>302.3746655144177</v>
       </c>
       <c r="O24" t="n">
         <v>326.276269873291</v>
@@ -36516,16 +36518,16 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243084</v>
       </c>
       <c r="L25" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354741</v>
       </c>
       <c r="M25" t="n">
-        <v>81.01564128325168</v>
+        <v>81.01564128325167</v>
       </c>
       <c r="N25" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962314</v>
       </c>
       <c r="O25" t="n">
         <v>61.94411832576036</v>
@@ -36677,16 +36679,16 @@
         <v>177.5326105223148</v>
       </c>
       <c r="L27" t="n">
-        <v>300.7391464461244</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>403.4526632366292</v>
+        <v>312.9531394448603</v>
       </c>
       <c r="N27" t="n">
-        <v>340.7791716322998</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P27" t="n">
         <v>244.6906557616239</v>
@@ -36914,10 +36916,10 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>87.03308673054588</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M30" t="n">
-        <v>403.4526632366292</v>
+        <v>189.7466035210507</v>
       </c>
       <c r="N30" t="n">
         <v>405.7415719969023</v>
@@ -37145,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>116.0723750175074</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M33" t="n">
         <v>403.4526632366292</v>
@@ -37163,10 +37165,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P33" t="n">
-        <v>244.6906557616239</v>
+        <v>141.323749279139</v>
       </c>
       <c r="Q33" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,13 +37387,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L36" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M36" t="n">
-        <v>403.4526632366292</v>
+        <v>41.25328128569732</v>
       </c>
       <c r="N36" t="n">
         <v>405.7415719969023</v>
@@ -37400,10 +37402,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P36" t="n">
-        <v>170.3630375661004</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37619,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>87.03308673054588</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M39" t="n">
         <v>403.4526632366292</v>
@@ -37637,10 +37639,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P39" t="n">
-        <v>244.6906557616239</v>
+        <v>170.3630375661007</v>
       </c>
       <c r="Q39" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>38.06115762167952</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K41" t="n">
         <v>179.0082576726432</v>
@@ -37865,10 +37867,10 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M42" t="n">
-        <v>403.4526632366292</v>
+        <v>122.5531462318296</v>
       </c>
       <c r="N42" t="n">
-        <v>14.50290175900885</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O42" t="n">
         <v>326.276269873291</v>
@@ -37877,7 +37879,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q42" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167952</v>
       </c>
       <c r="K44" t="n">
         <v>179.0082576726432</v>
@@ -38035,7 +38037,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q44" t="n">
-        <v>53.63987744680312</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38096,13 +38098,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M45" t="n">
-        <v>41.25328128569732</v>
+        <v>329.1250450411059</v>
       </c>
       <c r="N45" t="n">
         <v>405.7415719969023</v>
@@ -38114,7 +38116,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q45" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
